--- a/src/test/resources/TestData/SetupTestData.xlsx
+++ b/src/test/resources/TestData/SetupTestData.xlsx
@@ -1,36 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stored-Code\TestAutomation\Development\Root\Source\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E050F87-46A1-4331-B296-39871E191E26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C430BF-0BB1-4223-824A-FA923B11C83F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" activeTab="1" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="2" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupCreation" sheetId="19" r:id="rId1"/>
     <sheet name="SetupCreation_1" sheetId="20" r:id="rId2"/>
-    <sheet name="SetupCreation_2" sheetId="17" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId4"/>
-    <sheet name="SET003" sheetId="2" r:id="rId5"/>
-    <sheet name="SET004" sheetId="10" r:id="rId6"/>
-    <sheet name="SET005" sheetId="1" r:id="rId7"/>
-    <sheet name="SET008" sheetId="3" r:id="rId8"/>
-    <sheet name="SET009" sheetId="11" r:id="rId9"/>
-    <sheet name="SET010" sheetId="4" r:id="rId10"/>
-    <sheet name="SET015" sheetId="5" r:id="rId11"/>
-    <sheet name="SET016" sheetId="12" r:id="rId12"/>
-    <sheet name="SET017" sheetId="6" r:id="rId13"/>
-    <sheet name="SET018" sheetId="7" r:id="rId14"/>
-    <sheet name="SET019" sheetId="14" r:id="rId15"/>
-    <sheet name="SET020" sheetId="8" r:id="rId16"/>
-    <sheet name="SET021" sheetId="15" r:id="rId17"/>
-    <sheet name="SET022" sheetId="16" r:id="rId18"/>
+    <sheet name="SetupCreation_3" sheetId="21" r:id="rId3"/>
+    <sheet name="SetupCreation_4" sheetId="22" r:id="rId4"/>
+    <sheet name="SetupCreation_2" sheetId="17" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId6"/>
+    <sheet name="SET003" sheetId="2" r:id="rId7"/>
+    <sheet name="SET004" sheetId="10" r:id="rId8"/>
+    <sheet name="SET005" sheetId="1" r:id="rId9"/>
+    <sheet name="SET008" sheetId="3" r:id="rId10"/>
+    <sheet name="SET009" sheetId="11" r:id="rId11"/>
+    <sheet name="SET010" sheetId="4" r:id="rId12"/>
+    <sheet name="SET015" sheetId="5" r:id="rId13"/>
+    <sheet name="SET016" sheetId="12" r:id="rId14"/>
+    <sheet name="SET017" sheetId="6" r:id="rId15"/>
+    <sheet name="SET018" sheetId="7" r:id="rId16"/>
+    <sheet name="SET019" sheetId="14" r:id="rId17"/>
+    <sheet name="SET020" sheetId="8" r:id="rId18"/>
+    <sheet name="SET021" sheetId="15" r:id="rId19"/>
+    <sheet name="SET022" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SetupCreation!$A$1:$Z$51</definedName>
@@ -131,6 +133,80 @@
     <author>Ghadei, Manoj (Amphenol-AS)</author>
   </authors>
   <commentList>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{3F1ADC6C-7FB2-42AE-A250-19108C1DB68E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the data in Yr:Mnth:Dt:Hr:Mnt:Sec format. Ex:- 0:0:0:1:0:0, which means one want to set TOD by 1 Hr ahead of the current time stamp.
+- Enter numeric data.
+- This field is applicable if Qstart is set to TOD
+- If Qstart = Manual, then simply enter 0:0:0:0:0:0</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{8C488893-8A96-4A12-A298-8D5D08A37B88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the data in Yr:Mnth:Dt:Hr:Mnt:Sec format. Ex:- 0:0:0:1:0:0, which means one want to set TOD by 1 Hr ahead of the current time stamp.
+- Enter numeric data.
+- This field is applicable if Qstart is set to TOD
+- If Qstart = Manual, then simply enter 0:0:0:0:0:0</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
     <comment ref="M1" authorId="0" shapeId="0" xr:uid="{9DA06F53-D746-4FD1-9674-27D98D617B5C}">
       <text>
         <r>
@@ -163,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="755">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -2410,6 +2486,24 @@
   </si>
   <si>
     <t>Re-Read</t>
+  </si>
+  <si>
+    <t>Qual_case_010</t>
+  </si>
+  <si>
+    <t>AST0911</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>During Entire Study</t>
+  </si>
+  <si>
+    <t>AST0902</t>
+  </si>
+  <si>
+    <t>0912</t>
   </si>
 </sst>
 </file>
@@ -7006,6 +7100,123 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014BDF4D-CBB5-4F9C-BB9D-27B4EA7688A0}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>301</v>
+      </c>
+      <c r="B7" s="2">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2049F43F-94DE-444E-8AA7-927124D09D45}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299206D-8880-48B7-8144-E8CD00C5D1F6}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -7256,7 +7467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE30440-E635-4D52-A1CC-D1E4951C2625}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -7291,7 +7502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D38FF2F-E585-4F1A-9A4E-9EDA6AE30354}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -7406,7 +7617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDC6971-A18E-444E-9493-5CE9E01DA64C}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -7679,7 +7890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE32352-9683-412A-B278-9DA687CA0934}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -7714,7 +7925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D38C88-FDD6-49E5-8013-685829D33A51}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -7829,7 +8040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2AD9DE-E990-4788-8991-F092345FE2E6}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -8102,7 +8313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937DD162-7CAA-4645-8222-89BAFB37D394}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8153,54 +8364,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85968853-1FFA-46D5-9B3F-D01D330E203B}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E6EA59-4485-4F31-B12C-06AF6BC0EF0F}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10079,7 +10248,407 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85968853-1FFA-46D5-9B3F-D01D330E203B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694AE40C-7218-4986-989B-672275CB1F5B}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F53CE7-4B94-40F0-B2B0-1EC3D68F29F2}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>750</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>749</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE62EE4E-9060-4348-B013-B5B88C30F8F1}">
   <dimension ref="A1:U51"/>
   <sheetViews>
@@ -13431,7 +14000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2588EC10-D4E8-4199-9BE4-448B0CA5FBB1}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -13623,7 +14192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAF0D48-3FFE-4E63-90D8-6D4600BE85B6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -13659,7 +14228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E449FC5-5B23-47AB-A657-9AEA716ABD07}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -13750,7 +14319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F772A9F6-A3B5-402F-8C68-9034BA270367}">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -14035,121 +14604,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014BDF4D-CBB5-4F9C-BB9D-27B4EA7688A0}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>301</v>
-      </c>
-      <c r="B7" s="2">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2049F43F-94DE-444E-8AA7-927124D09D45}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData/SetupTestData.xlsx
+++ b/src/test/resources/TestData/SetupTestData.xlsx
@@ -1,38 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stored-Code\TestAutomation\Development\Root\Source\VRT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C430BF-0BB1-4223-824A-FA923B11C83F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C939B81F-3442-4820-96A8-4F8AC0E0347C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="2" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" activeTab="4" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupCreation" sheetId="19" r:id="rId1"/>
     <sheet name="SetupCreation_1" sheetId="20" r:id="rId2"/>
-    <sheet name="SetupCreation_3" sheetId="21" r:id="rId3"/>
-    <sheet name="SetupCreation_4" sheetId="22" r:id="rId4"/>
-    <sheet name="SetupCreation_2" sheetId="17" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId6"/>
-    <sheet name="SET003" sheetId="2" r:id="rId7"/>
-    <sheet name="SET004" sheetId="10" r:id="rId8"/>
-    <sheet name="SET005" sheetId="1" r:id="rId9"/>
-    <sheet name="SET008" sheetId="3" r:id="rId10"/>
-    <sheet name="SET009" sheetId="11" r:id="rId11"/>
-    <sheet name="SET010" sheetId="4" r:id="rId12"/>
-    <sheet name="SET015" sheetId="5" r:id="rId13"/>
-    <sheet name="SET016" sheetId="12" r:id="rId14"/>
-    <sheet name="SET017" sheetId="6" r:id="rId15"/>
-    <sheet name="SET018" sheetId="7" r:id="rId16"/>
-    <sheet name="SET019" sheetId="14" r:id="rId17"/>
-    <sheet name="SET020" sheetId="8" r:id="rId18"/>
-    <sheet name="SET021" sheetId="15" r:id="rId19"/>
-    <sheet name="SET022" sheetId="16" r:id="rId20"/>
+    <sheet name="SetupCreation_2" sheetId="17" r:id="rId3"/>
+    <sheet name="ADMN037A" sheetId="21" r:id="rId4"/>
+    <sheet name="ADMIN037F" sheetId="22" r:id="rId5"/>
+    <sheet name="SET003" sheetId="2" r:id="rId6"/>
+    <sheet name="SET004" sheetId="10" r:id="rId7"/>
+    <sheet name="SET005" sheetId="1" r:id="rId8"/>
+    <sheet name="SET008" sheetId="3" r:id="rId9"/>
+    <sheet name="SET009" sheetId="11" r:id="rId10"/>
+    <sheet name="SET010" sheetId="4" r:id="rId11"/>
+    <sheet name="SET015" sheetId="5" r:id="rId12"/>
+    <sheet name="SET016" sheetId="12" r:id="rId13"/>
+    <sheet name="SET017" sheetId="6" r:id="rId14"/>
+    <sheet name="SET018" sheetId="7" r:id="rId15"/>
+    <sheet name="SET019" sheetId="14" r:id="rId16"/>
+    <sheet name="SET020" sheetId="8" r:id="rId17"/>
+    <sheet name="SET021" sheetId="15" r:id="rId18"/>
+    <sheet name="SET022" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SetupCreation!$A$1:$Z$51</definedName>
@@ -133,80 +132,6 @@
     <author>Ghadei, Manoj (Amphenol-AS)</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{3F1ADC6C-7FB2-42AE-A250-19108C1DB68E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Enter the data in Yr:Mnth:Dt:Hr:Mnt:Sec format. Ex:- 0:0:0:1:0:0, which means one want to set TOD by 1 Hr ahead of the current time stamp.
-- Enter numeric data.
-- This field is applicable if Qstart is set to TOD
-- If Qstart = Manual, then simply enter 0:0:0:0:0:0</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ghadei, Manoj (Amphenol-AS)</author>
-  </authors>
-  <commentList>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{8C488893-8A96-4A12-A298-8D5D08A37B88}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Enter the data in Yr:Mnth:Dt:Hr:Mnt:Sec format. Ex:- 0:0:0:1:0:0, which means one want to set TOD by 1 Hr ahead of the current time stamp.
-- Enter numeric data.
-- This field is applicable if Qstart is set to TOD
-- If Qstart = Manual, then simply enter 0:0:0:0:0:0</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ghadei, Manoj (Amphenol-AS)</author>
-  </authors>
-  <commentList>
     <comment ref="M1" authorId="0" shapeId="0" xr:uid="{9DA06F53-D746-4FD1-9674-27D98D617B5C}">
       <text>
         <r>
@@ -239,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="754">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -622,24 +547,15 @@
     <t>Case03</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>121.1</t>
   </si>
   <si>
     <t>-125,-120</t>
   </si>
   <si>
-    <t>120.1</t>
-  </si>
-  <si>
     <t>3 Seconds</t>
   </si>
   <si>
@@ -2488,22 +2404,28 @@
     <t>Re-Read</t>
   </si>
   <si>
-    <t>Qual_case_010</t>
-  </si>
-  <si>
-    <t>AST0911</t>
-  </si>
-  <si>
-    <t>0901</t>
-  </si>
-  <si>
-    <t>During Entire Study</t>
-  </si>
-  <si>
-    <t>AST0902</t>
-  </si>
-  <si>
-    <t>0912</t>
+    <t>SyncInAsset</t>
+  </si>
+  <si>
+    <t>Admin37A</t>
+  </si>
+  <si>
+    <t>ADMIN037F</t>
+  </si>
+  <si>
+    <t>037F</t>
+  </si>
+  <si>
+    <t>HTC</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Amanufacturer</t>
+  </si>
+  <si>
+    <t>ALocation</t>
   </si>
 </sst>
 </file>
@@ -3012,19 +2934,19 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="E1" s="30" t="s">
         <v>507</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>510</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>29</v>
@@ -3063,7 +2985,7 @@
         <v>91</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="S1" s="23" t="s">
         <v>92</v>
@@ -3087,27 +3009,27 @@
         <v>123</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>98</v>
@@ -3116,13 +3038,13 @@
         <v>112</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>117</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>32</v>
@@ -3134,7 +3056,7 @@
         <v>122</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>100</v>
@@ -3143,7 +3065,7 @@
         <v>104</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S2" s="28" t="s">
         <v>104</v>
@@ -3161,33 +3083,33 @@
         <v>107</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Y2" s="29" t="s">
         <v>110</v>
       </c>
       <c r="Z2" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>98</v>
@@ -3202,7 +3124,7 @@
         <v>118</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L3" s="29" t="s">
         <v>32</v>
@@ -3214,7 +3136,7 @@
         <v>122</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P3" s="28" t="s">
         <v>101</v>
@@ -3223,7 +3145,7 @@
         <v>104</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S3" s="28" t="s">
         <v>104</v>
@@ -3241,33 +3163,33 @@
         <v>107</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Y3" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z3" s="29" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>98</v>
@@ -3282,7 +3204,7 @@
         <v>119</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L4" s="29" t="s">
         <v>32</v>
@@ -3294,7 +3216,7 @@
         <v>122</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>101</v>
@@ -3303,7 +3225,7 @@
         <v>104</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S4" s="28" t="s">
         <v>104</v>
@@ -3318,51 +3240,51 @@
         <v>40</v>
       </c>
       <c r="W4" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y4" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Z4" s="29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L5" s="29" t="s">
         <v>32</v>
@@ -3374,7 +3296,7 @@
         <v>122</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>100</v>
@@ -3383,7 +3305,7 @@
         <v>104</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S5" s="28" t="s">
         <v>104</v>
@@ -3398,51 +3320,51 @@
         <v>40</v>
       </c>
       <c r="W5" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y5" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Z5" s="29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L6" s="29" t="s">
         <v>32</v>
@@ -3454,7 +3376,7 @@
         <v>122</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>102</v>
@@ -3463,7 +3385,7 @@
         <v>104</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S6" s="28" t="s">
         <v>104</v>
@@ -3478,51 +3400,51 @@
         <v>40</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y6" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z6" s="29" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>32</v>
@@ -3534,7 +3456,7 @@
         <v>122</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>101</v>
@@ -3543,7 +3465,7 @@
         <v>104</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S7" s="28" t="s">
         <v>104</v>
@@ -3558,51 +3480,51 @@
         <v>40</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y7" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z7" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L8" s="29" t="s">
         <v>32</v>
@@ -3614,7 +3536,7 @@
         <v>122</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>101</v>
@@ -3623,7 +3545,7 @@
         <v>104</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S8" s="28" t="s">
         <v>104</v>
@@ -3647,42 +3569,42 @@
         <v>109</v>
       </c>
       <c r="Z8" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>32</v>
@@ -3694,7 +3616,7 @@
         <v>122</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P9" s="28" t="s">
         <v>100</v>
@@ -3703,7 +3625,7 @@
         <v>104</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S9" s="28" t="s">
         <v>104</v>
@@ -3727,42 +3649,42 @@
         <v>109</v>
       </c>
       <c r="Z9" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" s="29" t="s">
         <v>32</v>
@@ -3774,7 +3696,7 @@
         <v>122</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P10" s="28" t="s">
         <v>100</v>
@@ -3783,7 +3705,7 @@
         <v>104</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S10" s="28" t="s">
         <v>104</v>
@@ -3807,42 +3729,42 @@
         <v>109</v>
       </c>
       <c r="Z10" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L11" s="29" t="s">
         <v>32</v>
@@ -3854,7 +3776,7 @@
         <v>122</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P11" s="28" t="s">
         <v>101</v>
@@ -3863,7 +3785,7 @@
         <v>104</v>
       </c>
       <c r="R11" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S11" s="28" t="s">
         <v>104</v>
@@ -3881,48 +3803,48 @@
         <v>108</v>
       </c>
       <c r="X11" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y11" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z11" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L12" s="29" t="s">
         <v>32</v>
@@ -3934,7 +3856,7 @@
         <v>122</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P12" s="28" t="s">
         <v>100</v>
@@ -3943,7 +3865,7 @@
         <v>104</v>
       </c>
       <c r="R12" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S12" s="28" t="s">
         <v>104</v>
@@ -3958,7 +3880,7 @@
         <v>40</v>
       </c>
       <c r="W12" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="X12" s="31" t="s">
         <v>108</v>
@@ -3967,42 +3889,42 @@
         <v>109</v>
       </c>
       <c r="Z12" s="29" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L13" s="29" t="s">
         <v>32</v>
@@ -4014,7 +3936,7 @@
         <v>122</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P13" s="28" t="s">
         <v>102</v>
@@ -4023,7 +3945,7 @@
         <v>104</v>
       </c>
       <c r="R13" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S13" s="28" t="s">
         <v>104</v>
@@ -4038,51 +3960,51 @@
         <v>40</v>
       </c>
       <c r="W13" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="X13" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y13" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z13" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" s="29" t="s">
         <v>32</v>
@@ -4094,7 +4016,7 @@
         <v>122</v>
       </c>
       <c r="O14" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P14" s="28" t="s">
         <v>101</v>
@@ -4103,7 +4025,7 @@
         <v>104</v>
       </c>
       <c r="R14" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S14" s="28" t="s">
         <v>104</v>
@@ -4118,7 +4040,7 @@
         <v>40</v>
       </c>
       <c r="W14" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="X14" s="31" t="s">
         <v>108</v>
@@ -4127,42 +4049,42 @@
         <v>110</v>
       </c>
       <c r="Z14" s="29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L15" s="29" t="s">
         <v>32</v>
@@ -4174,7 +4096,7 @@
         <v>122</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P15" s="28" t="s">
         <v>100</v>
@@ -4183,7 +4105,7 @@
         <v>104</v>
       </c>
       <c r="R15" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S15" s="28" t="s">
         <v>104</v>
@@ -4198,51 +4120,51 @@
         <v>40</v>
       </c>
       <c r="W15" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="X15" s="31" t="s">
         <v>134</v>
-      </c>
-      <c r="X15" s="31" t="s">
-        <v>137</v>
       </c>
       <c r="Y15" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z15" s="29" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L16" s="29" t="s">
         <v>32</v>
@@ -4254,7 +4176,7 @@
         <v>122</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P16" s="28" t="s">
         <v>102</v>
@@ -4263,7 +4185,7 @@
         <v>104</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S16" s="28" t="s">
         <v>104</v>
@@ -4278,51 +4200,51 @@
         <v>40</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X16" s="31" t="s">
         <v>108</v>
       </c>
       <c r="Y16" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Z16" s="29" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L17" s="29" t="s">
         <v>32</v>
@@ -4334,7 +4256,7 @@
         <v>122</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P17" s="28" t="s">
         <v>102</v>
@@ -4343,7 +4265,7 @@
         <v>104</v>
       </c>
       <c r="R17" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S17" s="28" t="s">
         <v>104</v>
@@ -4358,51 +4280,51 @@
         <v>40</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Z17" s="29" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L18" s="29" t="s">
         <v>32</v>
@@ -4414,7 +4336,7 @@
         <v>122</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P18" s="28" t="s">
         <v>100</v>
@@ -4423,7 +4345,7 @@
         <v>104</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S18" s="28" t="s">
         <v>104</v>
@@ -4438,51 +4360,51 @@
         <v>40</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X18" s="31" t="s">
         <v>108</v>
       </c>
       <c r="Y18" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z18" s="29" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L19" s="29" t="s">
         <v>32</v>
@@ -4494,7 +4416,7 @@
         <v>122</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P19" s="28" t="s">
         <v>101</v>
@@ -4503,7 +4425,7 @@
         <v>104</v>
       </c>
       <c r="R19" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S19" s="28" t="s">
         <v>104</v>
@@ -4518,51 +4440,51 @@
         <v>40</v>
       </c>
       <c r="W19" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y19" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z19" s="29" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L20" s="29" t="s">
         <v>32</v>
@@ -4574,7 +4496,7 @@
         <v>122</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P20" s="28" t="s">
         <v>102</v>
@@ -4583,7 +4505,7 @@
         <v>104</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S20" s="28" t="s">
         <v>104</v>
@@ -4598,7 +4520,7 @@
         <v>40</v>
       </c>
       <c r="W20" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X20" s="31" t="s">
         <v>108</v>
@@ -4607,42 +4529,42 @@
         <v>109</v>
       </c>
       <c r="Z20" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L21" s="29" t="s">
         <v>32</v>
@@ -4654,7 +4576,7 @@
         <v>122</v>
       </c>
       <c r="O21" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P21" s="28" t="s">
         <v>102</v>
@@ -4663,7 +4585,7 @@
         <v>104</v>
       </c>
       <c r="R21" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S21" s="28" t="s">
         <v>104</v>
@@ -4678,51 +4600,51 @@
         <v>40</v>
       </c>
       <c r="W21" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X21" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y21" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z21" s="29" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L22" s="29" t="s">
         <v>32</v>
@@ -4734,7 +4656,7 @@
         <v>122</v>
       </c>
       <c r="O22" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P22" s="28" t="s">
         <v>100</v>
@@ -4743,7 +4665,7 @@
         <v>104</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S22" s="28" t="s">
         <v>104</v>
@@ -4758,7 +4680,7 @@
         <v>40</v>
       </c>
       <c r="W22" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X22" s="31" t="s">
         <v>108</v>
@@ -4767,42 +4689,42 @@
         <v>109</v>
       </c>
       <c r="Z22" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L23" s="29" t="s">
         <v>32</v>
@@ -4814,7 +4736,7 @@
         <v>122</v>
       </c>
       <c r="O23" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P23" s="28" t="s">
         <v>100</v>
@@ -4823,7 +4745,7 @@
         <v>104</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S23" s="28" t="s">
         <v>104</v>
@@ -4838,51 +4760,51 @@
         <v>40</v>
       </c>
       <c r="W23" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X23" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y23" s="29" t="s">
         <v>110</v>
       </c>
       <c r="Z23" s="29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L24" s="29" t="s">
         <v>32</v>
@@ -4894,7 +4816,7 @@
         <v>122</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P24" s="28" t="s">
         <v>100</v>
@@ -4903,7 +4825,7 @@
         <v>104</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S24" s="28" t="s">
         <v>104</v>
@@ -4918,7 +4840,7 @@
         <v>40</v>
       </c>
       <c r="W24" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="X24" s="31" t="s">
         <v>108</v>
@@ -4927,42 +4849,42 @@
         <v>109</v>
       </c>
       <c r="Z24" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L25" s="29" t="s">
         <v>32</v>
@@ -4974,7 +4896,7 @@
         <v>122</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P25" s="28" t="s">
         <v>101</v>
@@ -4983,7 +4905,7 @@
         <v>104</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S25" s="28" t="s">
         <v>104</v>
@@ -4998,51 +4920,51 @@
         <v>40</v>
       </c>
       <c r="W25" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="X25" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y25" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Z25" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L26" s="29" t="s">
         <v>32</v>
@@ -5054,7 +4976,7 @@
         <v>122</v>
       </c>
       <c r="O26" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P26" s="28" t="s">
         <v>100</v>
@@ -5063,7 +4985,7 @@
         <v>104</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S26" s="28" t="s">
         <v>105</v>
@@ -5081,48 +5003,48 @@
         <v>107</v>
       </c>
       <c r="X26" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Y26" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Z26" s="29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L27" s="29" t="s">
         <v>32</v>
@@ -5134,7 +5056,7 @@
         <v>122</v>
       </c>
       <c r="O27" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P27" s="28" t="s">
         <v>101</v>
@@ -5143,7 +5065,7 @@
         <v>104</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S27" s="28" t="s">
         <v>105</v>
@@ -5158,51 +5080,51 @@
         <v>40</v>
       </c>
       <c r="W27" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X27" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y27" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z27" s="29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L28" s="29" t="s">
         <v>32</v>
@@ -5214,7 +5136,7 @@
         <v>122</v>
       </c>
       <c r="O28" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P28" s="28" t="s">
         <v>100</v>
@@ -5223,7 +5145,7 @@
         <v>104</v>
       </c>
       <c r="R28" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S28" s="28" t="s">
         <v>105</v>
@@ -5238,51 +5160,51 @@
         <v>40</v>
       </c>
       <c r="W28" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="X28" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y28" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z28" s="29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L29" s="29" t="s">
         <v>32</v>
@@ -5294,7 +5216,7 @@
         <v>122</v>
       </c>
       <c r="O29" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P29" s="28" t="s">
         <v>100</v>
@@ -5303,13 +5225,13 @@
         <v>104</v>
       </c>
       <c r="R29" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S29" s="28" t="s">
         <v>105</v>
       </c>
       <c r="T29" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="U29" s="29" t="s">
         <v>40</v>
@@ -5327,42 +5249,42 @@
         <v>109</v>
       </c>
       <c r="Z29" s="29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L30" s="29" t="s">
         <v>32</v>
@@ -5374,7 +5296,7 @@
         <v>122</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P30" s="28" t="s">
         <v>100</v>
@@ -5383,13 +5305,13 @@
         <v>104</v>
       </c>
       <c r="R30" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S30" s="28" t="s">
         <v>105</v>
       </c>
       <c r="T30" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="U30" s="29" t="s">
         <v>40</v>
@@ -5407,42 +5329,42 @@
         <v>109</v>
       </c>
       <c r="Z30" s="29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L31" s="29" t="s">
         <v>32</v>
@@ -5454,7 +5376,7 @@
         <v>122</v>
       </c>
       <c r="O31" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P31" s="28" t="s">
         <v>101</v>
@@ -5463,7 +5385,7 @@
         <v>104</v>
       </c>
       <c r="R31" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S31" s="28" t="s">
         <v>105</v>
@@ -5478,7 +5400,7 @@
         <v>40</v>
       </c>
       <c r="W31" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="X31" s="31" t="s">
         <v>108</v>
@@ -5487,42 +5409,42 @@
         <v>109</v>
       </c>
       <c r="Z31" s="29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L32" s="29" t="s">
         <v>32</v>
@@ -5534,7 +5456,7 @@
         <v>122</v>
       </c>
       <c r="O32" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P32" s="28" t="s">
         <v>101</v>
@@ -5543,13 +5465,13 @@
         <v>104</v>
       </c>
       <c r="R32" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S32" s="28" t="s">
         <v>105</v>
       </c>
       <c r="T32" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="U32" s="29" t="s">
         <v>40</v>
@@ -5558,7 +5480,7 @@
         <v>40</v>
       </c>
       <c r="W32" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="X32" s="31" t="s">
         <v>108</v>
@@ -5567,42 +5489,42 @@
         <v>109</v>
       </c>
       <c r="Z32" s="29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L33" s="29" t="s">
         <v>32</v>
@@ -5614,7 +5536,7 @@
         <v>122</v>
       </c>
       <c r="O33" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P33" s="28" t="s">
         <v>101</v>
@@ -5623,13 +5545,13 @@
         <v>104</v>
       </c>
       <c r="R33" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S33" s="28" t="s">
         <v>105</v>
       </c>
       <c r="T33" s="29" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="U33" s="29" t="s">
         <v>40</v>
@@ -5638,51 +5560,51 @@
         <v>40</v>
       </c>
       <c r="W33" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X33" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y33" s="29" t="s">
         <v>110</v>
       </c>
       <c r="Z33" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L34" s="29" t="s">
         <v>32</v>
@@ -5694,7 +5616,7 @@
         <v>122</v>
       </c>
       <c r="O34" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P34" s="28" t="s">
         <v>100</v>
@@ -5703,7 +5625,7 @@
         <v>104</v>
       </c>
       <c r="R34" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S34" s="28" t="s">
         <v>105</v>
@@ -5718,51 +5640,51 @@
         <v>40</v>
       </c>
       <c r="W34" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X34" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y34" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z34" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L35" s="29" t="s">
         <v>32</v>
@@ -5774,7 +5696,7 @@
         <v>122</v>
       </c>
       <c r="O35" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P35" s="28" t="s">
         <v>100</v>
@@ -5783,7 +5705,7 @@
         <v>104</v>
       </c>
       <c r="R35" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S35" s="28" t="s">
         <v>105</v>
@@ -5798,51 +5720,51 @@
         <v>40</v>
       </c>
       <c r="W35" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X35" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y35" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Z35" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K36" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L36" s="29" t="s">
         <v>32</v>
@@ -5854,7 +5776,7 @@
         <v>122</v>
       </c>
       <c r="O36" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P36" s="28" t="s">
         <v>100</v>
@@ -5863,13 +5785,13 @@
         <v>104</v>
       </c>
       <c r="R36" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S36" s="28" t="s">
         <v>105</v>
       </c>
       <c r="T36" s="29" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="U36" s="29" t="s">
         <v>40</v>
@@ -5878,51 +5800,51 @@
         <v>40</v>
       </c>
       <c r="W36" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X36" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y36" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Z36" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K37" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L37" s="29" t="s">
         <v>32</v>
@@ -5934,7 +5856,7 @@
         <v>122</v>
       </c>
       <c r="O37" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P37" s="28" t="s">
         <v>100</v>
@@ -5943,7 +5865,7 @@
         <v>104</v>
       </c>
       <c r="R37" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S37" s="28" t="s">
         <v>105</v>
@@ -5958,51 +5880,51 @@
         <v>40</v>
       </c>
       <c r="W37" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="X37" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y37" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z37" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K38" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L38" s="29" t="s">
         <v>32</v>
@@ -6014,7 +5936,7 @@
         <v>122</v>
       </c>
       <c r="O38" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P38" s="28" t="s">
         <v>101</v>
@@ -6023,7 +5945,7 @@
         <v>103</v>
       </c>
       <c r="R38" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S38" s="28" t="s">
         <v>104</v>
@@ -6041,48 +5963,48 @@
         <v>107</v>
       </c>
       <c r="X38" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Y38" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z38" s="29" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G39" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="J39" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="H39" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="J39" s="29" t="s">
-        <v>332</v>
-      </c>
       <c r="K39" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L39" s="29" t="s">
         <v>32</v>
@@ -6094,7 +6016,7 @@
         <v>122</v>
       </c>
       <c r="O39" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P39" s="28" t="s">
         <v>102</v>
@@ -6103,7 +6025,7 @@
         <v>103</v>
       </c>
       <c r="R39" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S39" s="28" t="s">
         <v>104</v>
@@ -6118,51 +6040,51 @@
         <v>40</v>
       </c>
       <c r="W39" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X39" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y39" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z39" s="29" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G40" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="J40" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="H40" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="J40" s="29" t="s">
-        <v>338</v>
-      </c>
       <c r="K40" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L40" s="29" t="s">
         <v>32</v>
@@ -6174,7 +6096,7 @@
         <v>122</v>
       </c>
       <c r="O40" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P40" s="28" t="s">
         <v>101</v>
@@ -6183,7 +6105,7 @@
         <v>103</v>
       </c>
       <c r="R40" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S40" s="28" t="s">
         <v>104</v>
@@ -6198,51 +6120,51 @@
         <v>40</v>
       </c>
       <c r="W40" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="X40" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y40" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z40" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G41" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="J41" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="H41" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="J41" s="29" t="s">
-        <v>344</v>
-      </c>
       <c r="K41" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L41" s="29" t="s">
         <v>32</v>
@@ -6254,7 +6176,7 @@
         <v>122</v>
       </c>
       <c r="O41" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P41" s="28" t="s">
         <v>101</v>
@@ -6263,7 +6185,7 @@
         <v>103</v>
       </c>
       <c r="R41" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S41" s="28" t="s">
         <v>104</v>
@@ -6287,42 +6209,42 @@
         <v>109</v>
       </c>
       <c r="Z41" s="29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G42" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="J42" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="H42" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="J42" s="29" t="s">
-        <v>350</v>
-      </c>
       <c r="K42" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L42" s="29" t="s">
         <v>32</v>
@@ -6334,7 +6256,7 @@
         <v>122</v>
       </c>
       <c r="O42" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P42" s="28" t="s">
         <v>102</v>
@@ -6343,7 +6265,7 @@
         <v>103</v>
       </c>
       <c r="R42" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S42" s="28" t="s">
         <v>104</v>
@@ -6367,42 +6289,42 @@
         <v>109</v>
       </c>
       <c r="Z42" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J43" s="29" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K43" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L43" s="29" t="s">
         <v>32</v>
@@ -6414,7 +6336,7 @@
         <v>122</v>
       </c>
       <c r="O43" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P43" s="28" t="s">
         <v>101</v>
@@ -6423,7 +6345,7 @@
         <v>103</v>
       </c>
       <c r="R43" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S43" s="28" t="s">
         <v>104</v>
@@ -6438,7 +6360,7 @@
         <v>40</v>
       </c>
       <c r="W43" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="X43" s="31" t="s">
         <v>108</v>
@@ -6447,42 +6369,42 @@
         <v>109</v>
       </c>
       <c r="Z43" s="29" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G44" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="H44" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="I44" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="J44" s="29" t="s">
-        <v>361</v>
-      </c>
       <c r="K44" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L44" s="29" t="s">
         <v>32</v>
@@ -6494,7 +6416,7 @@
         <v>122</v>
       </c>
       <c r="O44" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P44" s="28" t="s">
         <v>100</v>
@@ -6503,7 +6425,7 @@
         <v>103</v>
       </c>
       <c r="R44" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S44" s="28" t="s">
         <v>104</v>
@@ -6518,7 +6440,7 @@
         <v>40</v>
       </c>
       <c r="W44" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="X44" s="31" t="s">
         <v>108</v>
@@ -6527,42 +6449,42 @@
         <v>109</v>
       </c>
       <c r="Z44" s="29" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G45" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="J45" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="H45" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>367</v>
-      </c>
       <c r="K45" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L45" s="29" t="s">
         <v>32</v>
@@ -6574,7 +6496,7 @@
         <v>122</v>
       </c>
       <c r="O45" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P45" s="28" t="s">
         <v>100</v>
@@ -6583,7 +6505,7 @@
         <v>103</v>
       </c>
       <c r="R45" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S45" s="28" t="s">
         <v>104</v>
@@ -6598,51 +6520,51 @@
         <v>40</v>
       </c>
       <c r="W45" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X45" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y45" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z45" s="29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G46" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="J46" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="H46" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="I46" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="J46" s="29" t="s">
-        <v>373</v>
-      </c>
       <c r="K46" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L46" s="29" t="s">
         <v>32</v>
@@ -6654,7 +6576,7 @@
         <v>122</v>
       </c>
       <c r="O46" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P46" s="28" t="s">
         <v>102</v>
@@ -6663,7 +6585,7 @@
         <v>103</v>
       </c>
       <c r="R46" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S46" s="28" t="s">
         <v>104</v>
@@ -6678,51 +6600,51 @@
         <v>40</v>
       </c>
       <c r="W46" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X46" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y46" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z46" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G47" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="J47" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="H47" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="J47" s="29" t="s">
-        <v>379</v>
-      </c>
       <c r="K47" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L47" s="29" t="s">
         <v>32</v>
@@ -6734,7 +6656,7 @@
         <v>122</v>
       </c>
       <c r="O47" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P47" s="28" t="s">
         <v>101</v>
@@ -6743,7 +6665,7 @@
         <v>103</v>
       </c>
       <c r="R47" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S47" s="28" t="s">
         <v>104</v>
@@ -6758,51 +6680,51 @@
         <v>40</v>
       </c>
       <c r="W47" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X47" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y47" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z47" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G48" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="J48" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="H48" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>385</v>
-      </c>
       <c r="K48" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L48" s="29" t="s">
         <v>32</v>
@@ -6814,7 +6736,7 @@
         <v>122</v>
       </c>
       <c r="O48" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P48" s="28" t="s">
         <v>101</v>
@@ -6823,7 +6745,7 @@
         <v>103</v>
       </c>
       <c r="R48" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S48" s="28" t="s">
         <v>104</v>
@@ -6838,51 +6760,51 @@
         <v>40</v>
       </c>
       <c r="W48" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X48" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y48" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z48" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G49" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="J49" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="H49" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="I49" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="J49" s="29" t="s">
-        <v>391</v>
-      </c>
       <c r="K49" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L49" s="29" t="s">
         <v>32</v>
@@ -6894,7 +6816,7 @@
         <v>122</v>
       </c>
       <c r="O49" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P49" s="28" t="s">
         <v>102</v>
@@ -6903,7 +6825,7 @@
         <v>103</v>
       </c>
       <c r="R49" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S49" s="28" t="s">
         <v>104</v>
@@ -6918,51 +6840,51 @@
         <v>40</v>
       </c>
       <c r="W49" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="X49" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y49" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z49" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G50" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="H50" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="J50" s="29" t="s">
-        <v>397</v>
-      </c>
       <c r="K50" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L50" s="29" t="s">
         <v>32</v>
@@ -6974,7 +6896,7 @@
         <v>122</v>
       </c>
       <c r="O50" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P50" s="28" t="s">
         <v>100</v>
@@ -6983,7 +6905,7 @@
         <v>103</v>
       </c>
       <c r="R50" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S50" s="28" t="s">
         <v>105</v>
@@ -7001,48 +6923,48 @@
         <v>107</v>
       </c>
       <c r="X50" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Y50" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z50" s="29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G51" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="J51" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="H51" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="J51" s="29" t="s">
-        <v>403</v>
-      </c>
       <c r="K51" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L51" s="29" t="s">
         <v>32</v>
@@ -7054,7 +6976,7 @@
         <v>122</v>
       </c>
       <c r="O51" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P51" s="28" t="s">
         <v>102</v>
@@ -7063,7 +6985,7 @@
         <v>103</v>
       </c>
       <c r="R51" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S51" s="28" t="s">
         <v>105</v>
@@ -7087,7 +7009,7 @@
         <v>109</v>
       </c>
       <c r="Z51" s="29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -7100,80 +7022,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014BDF4D-CBB5-4F9C-BB9D-27B4EA7688A0}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>301</v>
-      </c>
-      <c r="B7" s="2">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2049F43F-94DE-444E-8AA7-927124D09D45}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -7216,7 +7064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299206D-8880-48B7-8144-E8CD00C5D1F6}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -7467,7 +7315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE30440-E635-4D52-A1CC-D1E4951C2625}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -7502,7 +7350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D38FF2F-E585-4F1A-9A4E-9EDA6AE30354}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -7617,7 +7465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDC6971-A18E-444E-9493-5CE9E01DA64C}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -7890,7 +7738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE32352-9683-412A-B278-9DA687CA0934}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -7925,7 +7773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D38C88-FDD6-49E5-8013-685829D33A51}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -8040,7 +7888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2AD9DE-E990-4788-8991-F092345FE2E6}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -8313,7 +8161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937DD162-7CAA-4645-8222-89BAFB37D394}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8357,6 +8205,48 @@
       </c>
       <c r="B4" s="9" t="s">
         <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85968853-1FFA-46D5-9B3F-D01D330E203B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -8401,19 +8291,19 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="E1" s="30" t="s">
         <v>507</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>510</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>29</v>
@@ -8452,7 +8342,7 @@
         <v>91</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="S1" s="23" t="s">
         <v>92</v>
@@ -8476,42 +8366,42 @@
         <v>123</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>32</v>
@@ -8523,7 +8413,7 @@
         <v>122</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>100</v>
@@ -8532,7 +8422,7 @@
         <v>103</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S2" s="28" t="s">
         <v>105</v>
@@ -8547,51 +8437,51 @@
         <v>40</v>
       </c>
       <c r="W2" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y2" s="29" t="s">
         <v>110</v>
       </c>
       <c r="Z2" s="29" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L3" s="29" t="s">
         <v>32</v>
@@ -8603,7 +8493,7 @@
         <v>122</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P3" s="28" t="s">
         <v>101</v>
@@ -8612,7 +8502,7 @@
         <v>103</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S3" s="28" t="s">
         <v>105</v>
@@ -8627,7 +8517,7 @@
         <v>40</v>
       </c>
       <c r="W3" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X3" s="31" t="s">
         <v>108</v>
@@ -8636,42 +8526,42 @@
         <v>109</v>
       </c>
       <c r="Z3" s="29" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L4" s="29" t="s">
         <v>32</v>
@@ -8683,7 +8573,7 @@
         <v>122</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>101</v>
@@ -8692,7 +8582,7 @@
         <v>103</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S4" s="28" t="s">
         <v>105</v>
@@ -8707,51 +8597,51 @@
         <v>40</v>
       </c>
       <c r="W4" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="X4" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y4" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="Y4" s="29" t="s">
-        <v>147</v>
-      </c>
       <c r="Z4" s="29" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L5" s="29" t="s">
         <v>32</v>
@@ -8763,7 +8653,7 @@
         <v>122</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>100</v>
@@ -8772,7 +8662,7 @@
         <v>103</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S5" s="28" t="s">
         <v>105</v>
@@ -8787,51 +8677,51 @@
         <v>40</v>
       </c>
       <c r="W5" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="X5" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y5" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Y5" s="29" t="s">
-        <v>148</v>
-      </c>
       <c r="Z5" s="29" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L6" s="29" t="s">
         <v>32</v>
@@ -8843,7 +8733,7 @@
         <v>122</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>102</v>
@@ -8852,7 +8742,7 @@
         <v>103</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S6" s="28" t="s">
         <v>105</v>
@@ -8873,45 +8763,45 @@
         <v>108</v>
       </c>
       <c r="Y6" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z6" s="29" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>32</v>
@@ -8923,7 +8813,7 @@
         <v>122</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>101</v>
@@ -8932,7 +8822,7 @@
         <v>103</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S7" s="28" t="s">
         <v>105</v>
@@ -8950,48 +8840,48 @@
         <v>106</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y7" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z7" s="29" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L8" s="29" t="s">
         <v>32</v>
@@ -9003,7 +8893,7 @@
         <v>122</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>101</v>
@@ -9012,7 +8902,7 @@
         <v>103</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S8" s="28" t="s">
         <v>105</v>
@@ -9036,42 +8926,42 @@
         <v>109</v>
       </c>
       <c r="Z8" s="29" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>32</v>
@@ -9083,7 +8973,7 @@
         <v>122</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P9" s="28" t="s">
         <v>100</v>
@@ -9092,7 +8982,7 @@
         <v>103</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S9" s="28" t="s">
         <v>105</v>
@@ -9110,48 +9000,48 @@
         <v>108</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y9" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z9" s="29" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" s="29" t="s">
         <v>32</v>
@@ -9163,7 +9053,7 @@
         <v>122</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P10" s="28" t="s">
         <v>100</v>
@@ -9172,7 +9062,7 @@
         <v>103</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S10" s="28" t="s">
         <v>105</v>
@@ -9187,7 +9077,7 @@
         <v>40</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="X10" s="31" t="s">
         <v>108</v>
@@ -9196,42 +9086,42 @@
         <v>109</v>
       </c>
       <c r="Z10" s="29" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L11" s="29" t="s">
         <v>32</v>
@@ -9243,7 +9133,7 @@
         <v>122</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P11" s="28" t="s">
         <v>101</v>
@@ -9252,7 +9142,7 @@
         <v>103</v>
       </c>
       <c r="R11" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S11" s="28" t="s">
         <v>105</v>
@@ -9267,51 +9157,51 @@
         <v>40</v>
       </c>
       <c r="W11" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="X11" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y11" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z11" s="29" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L12" s="29" t="s">
         <v>32</v>
@@ -9323,7 +9213,7 @@
         <v>122</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P12" s="28" t="s">
         <v>100</v>
@@ -9332,7 +9222,7 @@
         <v>103</v>
       </c>
       <c r="R12" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S12" s="28" t="s">
         <v>105</v>
@@ -9341,13 +9231,13 @@
         <v>40</v>
       </c>
       <c r="U12" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="V12" s="29" t="s">
         <v>40</v>
       </c>
       <c r="W12" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="X12" s="31" t="s">
         <v>108</v>
@@ -9356,42 +9246,42 @@
         <v>109</v>
       </c>
       <c r="Z12" s="29" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L13" s="29" t="s">
         <v>32</v>
@@ -9403,7 +9293,7 @@
         <v>122</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P13" s="28" t="s">
         <v>102</v>
@@ -9412,7 +9302,7 @@
         <v>103</v>
       </c>
       <c r="R13" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S13" s="28" t="s">
         <v>105</v>
@@ -9427,51 +9317,51 @@
         <v>40</v>
       </c>
       <c r="W13" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="X13" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y13" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z13" s="29" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" s="29" t="s">
         <v>32</v>
@@ -9483,7 +9373,7 @@
         <v>122</v>
       </c>
       <c r="O14" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P14" s="28" t="s">
         <v>101</v>
@@ -9492,13 +9382,13 @@
         <v>103</v>
       </c>
       <c r="R14" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S14" s="28" t="s">
         <v>105</v>
       </c>
       <c r="T14" s="29" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="U14" s="29" t="s">
         <v>40</v>
@@ -9507,51 +9397,51 @@
         <v>40</v>
       </c>
       <c r="W14" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X14" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y14" s="29" t="s">
         <v>110</v>
       </c>
       <c r="Z14" s="29" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L15" s="29" t="s">
         <v>32</v>
@@ -9563,7 +9453,7 @@
         <v>122</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P15" s="28" t="s">
         <v>100</v>
@@ -9572,7 +9462,7 @@
         <v>103</v>
       </c>
       <c r="R15" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S15" s="28" t="s">
         <v>105</v>
@@ -9587,51 +9477,51 @@
         <v>40</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X15" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y15" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z15" s="29" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L16" s="29" t="s">
         <v>32</v>
@@ -9643,7 +9533,7 @@
         <v>122</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P16" s="28" t="s">
         <v>102</v>
@@ -9652,7 +9542,7 @@
         <v>103</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S16" s="28" t="s">
         <v>105</v>
@@ -9667,51 +9557,51 @@
         <v>40</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X16" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y16" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Z16" s="29" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L17" s="29" t="s">
         <v>32</v>
@@ -9723,7 +9613,7 @@
         <v>122</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P17" s="28" t="s">
         <v>102</v>
@@ -9732,7 +9622,7 @@
         <v>103</v>
       </c>
       <c r="R17" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S17" s="28" t="s">
         <v>105</v>
@@ -9747,51 +9637,51 @@
         <v>40</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Z17" s="29" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L18" s="29" t="s">
         <v>32</v>
@@ -9803,7 +9693,7 @@
         <v>122</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P18" s="28" t="s">
         <v>100</v>
@@ -9812,13 +9702,13 @@
         <v>103</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S18" s="28" t="s">
         <v>105</v>
       </c>
       <c r="T18" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="U18" s="29" t="s">
         <v>40</v>
@@ -9827,51 +9717,51 @@
         <v>40</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X18" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y18" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z18" s="29" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L19" s="29" t="s">
         <v>32</v>
@@ -9883,7 +9773,7 @@
         <v>122</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P19" s="28" t="s">
         <v>101</v>
@@ -9892,7 +9782,7 @@
         <v>103</v>
       </c>
       <c r="R19" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S19" s="28" t="s">
         <v>105</v>
@@ -9907,51 +9797,51 @@
         <v>40</v>
       </c>
       <c r="W19" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y19" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z19" s="29" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L20" s="29" t="s">
         <v>32</v>
@@ -9963,7 +9853,7 @@
         <v>122</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P20" s="28" t="s">
         <v>102</v>
@@ -9972,13 +9862,13 @@
         <v>103</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S20" s="28" t="s">
         <v>105</v>
       </c>
       <c r="T20" s="29" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="U20" s="29" t="s">
         <v>40</v>
@@ -9987,51 +9877,51 @@
         <v>40</v>
       </c>
       <c r="W20" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X20" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y20" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z20" s="29" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L21" s="29" t="s">
         <v>32</v>
@@ -10043,7 +9933,7 @@
         <v>122</v>
       </c>
       <c r="O21" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P21" s="28" t="s">
         <v>102</v>
@@ -10052,7 +9942,7 @@
         <v>103</v>
       </c>
       <c r="R21" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S21" s="28" t="s">
         <v>105</v>
@@ -10067,51 +9957,51 @@
         <v>40</v>
       </c>
       <c r="W21" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X21" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y21" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z21" s="29" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L22" s="29" t="s">
         <v>32</v>
@@ -10123,7 +10013,7 @@
         <v>122</v>
       </c>
       <c r="O22" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P22" s="28" t="s">
         <v>100</v>
@@ -10132,13 +10022,13 @@
         <v>103</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S22" s="28" t="s">
         <v>105</v>
       </c>
       <c r="T22" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="U22" s="29" t="s">
         <v>40</v>
@@ -10147,51 +10037,51 @@
         <v>40</v>
       </c>
       <c r="W22" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="X22" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y22" s="29" t="s">
         <v>109</v>
       </c>
       <c r="Z22" s="29" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L23" s="29" t="s">
         <v>32</v>
@@ -10203,7 +10093,7 @@
         <v>122</v>
       </c>
       <c r="O23" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P23" s="28" t="s">
         <v>100</v>
@@ -10212,7 +10102,7 @@
         <v>103</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S23" s="28" t="s">
         <v>105</v>
@@ -10227,16 +10117,16 @@
         <v>40</v>
       </c>
       <c r="W23" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="X23" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y23" s="29" t="s">
         <v>110</v>
       </c>
       <c r="Z23" s="29" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -10248,407 +10138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85968853-1FFA-46D5-9B3F-D01D330E203B}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694AE40C-7218-4986-989B-672275CB1F5B}">
-  <dimension ref="A1:Z2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>510</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>753</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>754</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>611</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>661</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>683</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>725</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>752</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="X2" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>639</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F53CE7-4B94-40F0-B2B0-1EC3D68F29F2}">
-  <dimension ref="A1:Z2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>510</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>750</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>751</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>611</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>749</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>683</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>725</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="X2" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>639</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE62EE4E-9060-4348-B013-B5B88C30F8F1}">
   <dimension ref="A1:U51"/>
   <sheetViews>
@@ -10715,7 +10205,7 @@
         <v>91</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>92</v>
@@ -10739,7 +10229,7 @@
         <v>123</v>
       </c>
       <c r="U1" s="20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -10759,7 +10249,7 @@
         <v>117</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>32</v>
@@ -10771,7 +10261,7 @@
         <v>122</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>100</v>
@@ -10780,7 +10270,7 @@
         <v>104</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>104</v>
@@ -10792,7 +10282,7 @@
         <v>40</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>106</v>
@@ -10804,7 +10294,7 @@
         <v>109</v>
       </c>
       <c r="U2" s="26" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -10824,7 +10314,7 @@
         <v>118</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>32</v>
@@ -10836,7 +10326,7 @@
         <v>122</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>101</v>
@@ -10845,7 +10335,7 @@
         <v>104</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="N3" s="24" t="s">
         <v>104</v>
@@ -10869,7 +10359,7 @@
         <v>109</v>
       </c>
       <c r="U3" s="26" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -10889,7 +10379,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>32</v>
@@ -10901,7 +10391,7 @@
         <v>122</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>100</v>
@@ -10910,7 +10400,7 @@
         <v>104</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N4" s="24" t="s">
         <v>104</v>
@@ -10919,7 +10409,7 @@
         <v>32</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="25" t="s">
         <v>40</v>
@@ -10934,27 +10424,27 @@
         <v>109</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>32</v>
@@ -10966,7 +10456,7 @@
         <v>122</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>101</v>
@@ -10975,7 +10465,7 @@
         <v>104</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="N5" s="24" t="s">
         <v>104</v>
@@ -10999,27 +10489,27 @@
         <v>109</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>32</v>
@@ -11031,7 +10521,7 @@
         <v>122</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>100</v>
@@ -11040,7 +10530,7 @@
         <v>104</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N6" s="24" t="s">
         <v>104</v>
@@ -11064,27 +10554,27 @@
         <v>109</v>
       </c>
       <c r="U6" s="26" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>32</v>
@@ -11096,7 +10586,7 @@
         <v>122</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>101</v>
@@ -11105,7 +10595,7 @@
         <v>104</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N7" s="24" t="s">
         <v>104</v>
@@ -11129,27 +10619,27 @@
         <v>109</v>
       </c>
       <c r="U7" s="26" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>32</v>
@@ -11161,7 +10651,7 @@
         <v>122</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>100</v>
@@ -11170,7 +10660,7 @@
         <v>104</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N8" s="24" t="s">
         <v>104</v>
@@ -11194,27 +10684,27 @@
         <v>109</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>32</v>
@@ -11226,7 +10716,7 @@
         <v>122</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>101</v>
@@ -11235,7 +10725,7 @@
         <v>104</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>104</v>
@@ -11259,27 +10749,27 @@
         <v>109</v>
       </c>
       <c r="U9" s="26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>32</v>
@@ -11291,7 +10781,7 @@
         <v>122</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>100</v>
@@ -11300,7 +10790,7 @@
         <v>104</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>104</v>
@@ -11324,27 +10814,27 @@
         <v>109</v>
       </c>
       <c r="U10" s="26" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>32</v>
@@ -11356,7 +10846,7 @@
         <v>122</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K11" s="24" t="s">
         <v>101</v>
@@ -11365,7 +10855,7 @@
         <v>104</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N11" s="24" t="s">
         <v>104</v>
@@ -11377,7 +10867,7 @@
         <v>40</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R11" s="24" t="s">
         <v>106</v>
@@ -11389,27 +10879,27 @@
         <v>109</v>
       </c>
       <c r="U11" s="26" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>32</v>
@@ -11421,7 +10911,7 @@
         <v>122</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>100</v>
@@ -11430,7 +10920,7 @@
         <v>104</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N12" s="24" t="s">
         <v>104</v>
@@ -11454,27 +10944,27 @@
         <v>109</v>
       </c>
       <c r="U12" s="26" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>32</v>
@@ -11486,7 +10976,7 @@
         <v>122</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K13" s="24" t="s">
         <v>101</v>
@@ -11495,7 +10985,7 @@
         <v>104</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>104</v>
@@ -11504,7 +10994,7 @@
         <v>32</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q13" s="25" t="s">
         <v>40</v>
@@ -11519,27 +11009,27 @@
         <v>109</v>
       </c>
       <c r="U13" s="26" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>32</v>
@@ -11551,7 +11041,7 @@
         <v>122</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>100</v>
@@ -11560,7 +11050,7 @@
         <v>104</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="N14" s="24" t="s">
         <v>104</v>
@@ -11584,27 +11074,27 @@
         <v>109</v>
       </c>
       <c r="U14" s="26" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>32</v>
@@ -11616,7 +11106,7 @@
         <v>122</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>101</v>
@@ -11625,7 +11115,7 @@
         <v>104</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N15" s="24" t="s">
         <v>104</v>
@@ -11649,27 +11139,27 @@
         <v>109</v>
       </c>
       <c r="U15" s="26" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>32</v>
@@ -11681,7 +11171,7 @@
         <v>122</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>100</v>
@@ -11690,7 +11180,7 @@
         <v>104</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N16" s="24" t="s">
         <v>104</v>
@@ -11714,27 +11204,27 @@
         <v>109</v>
       </c>
       <c r="U16" s="26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>32</v>
@@ -11746,7 +11236,7 @@
         <v>122</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>101</v>
@@ -11755,7 +11245,7 @@
         <v>104</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="N17" s="24" t="s">
         <v>104</v>
@@ -11779,27 +11269,27 @@
         <v>109</v>
       </c>
       <c r="U17" s="26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>32</v>
@@ -11811,7 +11301,7 @@
         <v>122</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>100</v>
@@ -11820,7 +11310,7 @@
         <v>104</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N18" s="24" t="s">
         <v>104</v>
@@ -11844,27 +11334,27 @@
         <v>109</v>
       </c>
       <c r="U18" s="26" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>32</v>
@@ -11876,7 +11366,7 @@
         <v>122</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>101</v>
@@ -11885,7 +11375,7 @@
         <v>104</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N19" s="24" t="s">
         <v>104</v>
@@ -11909,27 +11399,27 @@
         <v>109</v>
       </c>
       <c r="U19" s="26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>32</v>
@@ -11941,7 +11431,7 @@
         <v>122</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K20" s="24" t="s">
         <v>100</v>
@@ -11950,7 +11440,7 @@
         <v>104</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N20" s="24" t="s">
         <v>104</v>
@@ -11962,7 +11452,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R20" s="24" t="s">
         <v>106</v>
@@ -11974,27 +11464,27 @@
         <v>109</v>
       </c>
       <c r="U20" s="26" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>32</v>
@@ -12006,7 +11496,7 @@
         <v>122</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K21" s="24" t="s">
         <v>101</v>
@@ -12015,7 +11505,7 @@
         <v>104</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N21" s="24" t="s">
         <v>104</v>
@@ -12039,27 +11529,27 @@
         <v>109</v>
       </c>
       <c r="U21" s="26" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>32</v>
@@ -12071,7 +11561,7 @@
         <v>122</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K22" s="24" t="s">
         <v>100</v>
@@ -12080,7 +11570,7 @@
         <v>104</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="N22" s="24" t="s">
         <v>104</v>
@@ -12089,7 +11579,7 @@
         <v>32</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="25" t="s">
         <v>40</v>
@@ -12104,27 +11594,27 @@
         <v>109</v>
       </c>
       <c r="U22" s="26" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>32</v>
@@ -12136,7 +11626,7 @@
         <v>122</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>101</v>
@@ -12145,7 +11635,7 @@
         <v>104</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="N23" s="24" t="s">
         <v>104</v>
@@ -12169,27 +11659,27 @@
         <v>109</v>
       </c>
       <c r="U23" s="26" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>32</v>
@@ -12201,7 +11691,7 @@
         <v>122</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K24" s="24" t="s">
         <v>100</v>
@@ -12210,7 +11700,7 @@
         <v>104</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N24" s="24" t="s">
         <v>104</v>
@@ -12234,27 +11724,27 @@
         <v>109</v>
       </c>
       <c r="U24" s="26" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>32</v>
@@ -12266,7 +11756,7 @@
         <v>122</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K25" s="24" t="s">
         <v>101</v>
@@ -12275,7 +11765,7 @@
         <v>104</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N25" s="24" t="s">
         <v>104</v>
@@ -12299,27 +11789,27 @@
         <v>109</v>
       </c>
       <c r="U25" s="26" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>32</v>
@@ -12331,7 +11821,7 @@
         <v>122</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>100</v>
@@ -12340,7 +11830,7 @@
         <v>104</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N26" s="24" t="s">
         <v>104</v>
@@ -12364,27 +11854,27 @@
         <v>109</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>32</v>
@@ -12396,7 +11886,7 @@
         <v>122</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K27" s="24" t="s">
         <v>101</v>
@@ -12405,7 +11895,7 @@
         <v>104</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N27" s="24" t="s">
         <v>104</v>
@@ -12429,27 +11919,27 @@
         <v>109</v>
       </c>
       <c r="U27" s="26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>32</v>
@@ -12461,7 +11951,7 @@
         <v>122</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K28" s="24" t="s">
         <v>100</v>
@@ -12470,7 +11960,7 @@
         <v>104</v>
       </c>
       <c r="M28" s="25" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N28" s="24" t="s">
         <v>104</v>
@@ -12494,27 +11984,27 @@
         <v>109</v>
       </c>
       <c r="U28" s="26" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>32</v>
@@ -12526,7 +12016,7 @@
         <v>122</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K29" s="24" t="s">
         <v>101</v>
@@ -12535,7 +12025,7 @@
         <v>104</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N29" s="24" t="s">
         <v>104</v>
@@ -12547,7 +12037,7 @@
         <v>40</v>
       </c>
       <c r="Q29" s="25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R29" s="24" t="s">
         <v>106</v>
@@ -12559,27 +12049,27 @@
         <v>109</v>
       </c>
       <c r="U29" s="26" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>32</v>
@@ -12591,7 +12081,7 @@
         <v>122</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K30" s="24" t="s">
         <v>100</v>
@@ -12600,7 +12090,7 @@
         <v>104</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N30" s="24" t="s">
         <v>104</v>
@@ -12624,27 +12114,27 @@
         <v>109</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>32</v>
@@ -12656,7 +12146,7 @@
         <v>122</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K31" s="24" t="s">
         <v>101</v>
@@ -12665,7 +12155,7 @@
         <v>104</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N31" s="24" t="s">
         <v>104</v>
@@ -12674,7 +12164,7 @@
         <v>32</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q31" s="25" t="s">
         <v>40</v>
@@ -12689,27 +12179,27 @@
         <v>109</v>
       </c>
       <c r="U31" s="26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>32</v>
@@ -12721,7 +12211,7 @@
         <v>122</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K32" s="24" t="s">
         <v>100</v>
@@ -12730,7 +12220,7 @@
         <v>104</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N32" s="24" t="s">
         <v>104</v>
@@ -12754,27 +12244,27 @@
         <v>109</v>
       </c>
       <c r="U32" s="26" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>32</v>
@@ -12786,7 +12276,7 @@
         <v>122</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K33" s="24" t="s">
         <v>101</v>
@@ -12795,7 +12285,7 @@
         <v>104</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N33" s="24" t="s">
         <v>104</v>
@@ -12819,27 +12309,27 @@
         <v>109</v>
       </c>
       <c r="U33" s="26" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>32</v>
@@ -12851,7 +12341,7 @@
         <v>122</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K34" s="24" t="s">
         <v>100</v>
@@ -12860,7 +12350,7 @@
         <v>104</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N34" s="24" t="s">
         <v>104</v>
@@ -12884,27 +12374,27 @@
         <v>109</v>
       </c>
       <c r="U34" s="26" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>32</v>
@@ -12916,7 +12406,7 @@
         <v>122</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K35" s="24" t="s">
         <v>101</v>
@@ -12925,7 +12415,7 @@
         <v>104</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="N35" s="24" t="s">
         <v>104</v>
@@ -12949,27 +12439,27 @@
         <v>109</v>
       </c>
       <c r="U35" s="26" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>32</v>
@@ -12981,7 +12471,7 @@
         <v>122</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K36" s="24" t="s">
         <v>100</v>
@@ -12990,7 +12480,7 @@
         <v>104</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N36" s="24" t="s">
         <v>104</v>
@@ -13014,27 +12504,27 @@
         <v>109</v>
       </c>
       <c r="U36" s="26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>32</v>
@@ -13046,7 +12536,7 @@
         <v>122</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K37" s="24" t="s">
         <v>101</v>
@@ -13055,7 +12545,7 @@
         <v>104</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N37" s="24" t="s">
         <v>104</v>
@@ -13079,27 +12569,27 @@
         <v>109</v>
       </c>
       <c r="U37" s="26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>32</v>
@@ -13111,7 +12601,7 @@
         <v>122</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K38" s="24" t="s">
         <v>100</v>
@@ -13120,7 +12610,7 @@
         <v>104</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="N38" s="24" t="s">
         <v>104</v>
@@ -13144,27 +12634,27 @@
         <v>109</v>
       </c>
       <c r="U38" s="26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="E39" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>332</v>
-      </c>
       <c r="F39" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>32</v>
@@ -13176,7 +12666,7 @@
         <v>122</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K39" s="24" t="s">
         <v>100</v>
@@ -13185,7 +12675,7 @@
         <v>104</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N39" s="24" t="s">
         <v>104</v>
@@ -13209,27 +12699,27 @@
         <v>109</v>
       </c>
       <c r="U39" s="26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="E40" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="C40" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>338</v>
-      </c>
       <c r="F40" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G40" s="25" t="s">
         <v>32</v>
@@ -13241,7 +12731,7 @@
         <v>122</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K40" s="24" t="s">
         <v>100</v>
@@ -13250,7 +12740,7 @@
         <v>104</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N40" s="24" t="s">
         <v>104</v>
@@ -13274,27 +12764,27 @@
         <v>109</v>
       </c>
       <c r="U40" s="26" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="E41" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>344</v>
-      </c>
       <c r="F41" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>32</v>
@@ -13306,7 +12796,7 @@
         <v>122</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K41" s="24" t="s">
         <v>100</v>
@@ -13315,7 +12805,7 @@
         <v>104</v>
       </c>
       <c r="M41" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N41" s="24" t="s">
         <v>104</v>
@@ -13339,27 +12829,27 @@
         <v>109</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="E42" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>350</v>
-      </c>
       <c r="F42" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G42" s="25" t="s">
         <v>32</v>
@@ -13371,7 +12861,7 @@
         <v>122</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K42" s="24" t="s">
         <v>100</v>
@@ -13380,7 +12870,7 @@
         <v>104</v>
       </c>
       <c r="M42" s="25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N42" s="24" t="s">
         <v>104</v>
@@ -13404,27 +12894,27 @@
         <v>109</v>
       </c>
       <c r="U42" s="26" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E43" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>355</v>
-      </c>
       <c r="F43" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>32</v>
@@ -13436,7 +12926,7 @@
         <v>122</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K43" s="24" t="s">
         <v>100</v>
@@ -13445,7 +12935,7 @@
         <v>104</v>
       </c>
       <c r="M43" s="25" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N43" s="24" t="s">
         <v>104</v>
@@ -13469,27 +12959,27 @@
         <v>109</v>
       </c>
       <c r="U43" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="E44" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="C44" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>361</v>
-      </c>
       <c r="F44" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G44" s="25" t="s">
         <v>32</v>
@@ -13501,7 +12991,7 @@
         <v>122</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K44" s="24" t="s">
         <v>100</v>
@@ -13510,7 +13000,7 @@
         <v>104</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N44" s="24" t="s">
         <v>104</v>
@@ -13534,27 +13024,27 @@
         <v>109</v>
       </c>
       <c r="U44" s="26" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D45" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="E45" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>367</v>
-      </c>
       <c r="F45" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>32</v>
@@ -13566,7 +13056,7 @@
         <v>122</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K45" s="24" t="s">
         <v>100</v>
@@ -13575,7 +13065,7 @@
         <v>104</v>
       </c>
       <c r="M45" s="25" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N45" s="24" t="s">
         <v>104</v>
@@ -13599,27 +13089,27 @@
         <v>109</v>
       </c>
       <c r="U45" s="26" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D46" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="E46" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="C46" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>373</v>
-      </c>
       <c r="F46" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G46" s="25" t="s">
         <v>32</v>
@@ -13631,7 +13121,7 @@
         <v>122</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K46" s="24" t="s">
         <v>100</v>
@@ -13640,7 +13130,7 @@
         <v>104</v>
       </c>
       <c r="M46" s="25" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N46" s="24" t="s">
         <v>104</v>
@@ -13664,27 +13154,27 @@
         <v>109</v>
       </c>
       <c r="U46" s="26" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="E47" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="C47" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>379</v>
-      </c>
       <c r="F47" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>32</v>
@@ -13696,7 +13186,7 @@
         <v>122</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K47" s="24" t="s">
         <v>100</v>
@@ -13705,7 +13195,7 @@
         <v>104</v>
       </c>
       <c r="M47" s="25" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N47" s="24" t="s">
         <v>104</v>
@@ -13729,27 +13219,27 @@
         <v>109</v>
       </c>
       <c r="U47" s="26" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D48" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="E48" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>385</v>
-      </c>
       <c r="F48" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G48" s="25" t="s">
         <v>32</v>
@@ -13761,7 +13251,7 @@
         <v>122</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K48" s="24" t="s">
         <v>100</v>
@@ -13770,7 +13260,7 @@
         <v>104</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N48" s="24" t="s">
         <v>104</v>
@@ -13794,27 +13284,27 @@
         <v>109</v>
       </c>
       <c r="U48" s="26" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D49" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="E49" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>391</v>
-      </c>
       <c r="F49" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>32</v>
@@ -13826,7 +13316,7 @@
         <v>122</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K49" s="24" t="s">
         <v>100</v>
@@ -13835,7 +13325,7 @@
         <v>104</v>
       </c>
       <c r="M49" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N49" s="24" t="s">
         <v>104</v>
@@ -13859,27 +13349,27 @@
         <v>109</v>
       </c>
       <c r="U49" s="26" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="D50" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="E50" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C50" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>397</v>
-      </c>
       <c r="F50" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>32</v>
@@ -13891,7 +13381,7 @@
         <v>122</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K50" s="24" t="s">
         <v>100</v>
@@ -13900,7 +13390,7 @@
         <v>104</v>
       </c>
       <c r="M50" s="25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="N50" s="24" t="s">
         <v>104</v>
@@ -13924,27 +13414,27 @@
         <v>109</v>
       </c>
       <c r="U50" s="26" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D51" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="E51" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="C51" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>403</v>
-      </c>
       <c r="F51" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>32</v>
@@ -13956,7 +13446,7 @@
         <v>122</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K51" s="24" t="s">
         <v>100</v>
@@ -13965,7 +13455,7 @@
         <v>104</v>
       </c>
       <c r="M51" s="25" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N51" s="24" t="s">
         <v>104</v>
@@ -13989,7 +13479,7 @@
         <v>109</v>
       </c>
       <c r="U51" s="26" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -14000,191 +13490,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2588EC10-D4E8-4199-9BE4-448B0CA5FBB1}">
-  <dimension ref="A1:S3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694AE40C-7218-4986-989B-672275CB1F5B}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E2" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R2" t="s">
-        <v>134</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R3" t="s">
-        <v>108</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>109</v>
+      <c r="F2" s="28" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -14192,7 +13549,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F53CE7-4B94-40F0-B2B0-1EC3D68F29F2}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>748</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAF0D48-3FFE-4E63-90D8-6D4600BE85B6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -14228,7 +13639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E449FC5-5B23-47AB-A657-9AEA716ABD07}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -14319,7 +13730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F772A9F6-A3B5-402F-8C68-9034BA270367}">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -14604,4 +14015,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014BDF4D-CBB5-4F9C-BB9D-27B4EA7688A0}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>301</v>
+      </c>
+      <c r="B7" s="2">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/SetupTestData.xlsx
+++ b/src/test/resources/TestData/SetupTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSC\git\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4B0F1A-8C4B-425F-A83E-BFADBB39DFA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEDB5F8-126C-4F71-9C35-15723A2D58E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="847" firstSheet="52" activeTab="67" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupCreation_RT" sheetId="19" r:id="rId1"/>
@@ -32,52 +32,52 @@
     <sheet name="SET020" sheetId="8" r:id="rId17"/>
     <sheet name="SET021" sheetId="15" r:id="rId18"/>
     <sheet name="SET022" sheetId="16" r:id="rId19"/>
-    <sheet name="TcSC004" sheetId="23" r:id="rId20"/>
-    <sheet name="TcSC005" sheetId="24" r:id="rId21"/>
-    <sheet name="TcSC006" sheetId="25" r:id="rId22"/>
-    <sheet name="TcSC007" sheetId="26" r:id="rId23"/>
-    <sheet name="TcSC012" sheetId="27" r:id="rId24"/>
-    <sheet name="TcSC013" sheetId="28" r:id="rId25"/>
-    <sheet name="TcSC014" sheetId="29" r:id="rId26"/>
-    <sheet name="TcSC015" sheetId="30" r:id="rId27"/>
-    <sheet name="TcSC020" sheetId="31" r:id="rId28"/>
-    <sheet name="TcSC021" sheetId="32" r:id="rId29"/>
-    <sheet name="TcSC022" sheetId="33" r:id="rId30"/>
-    <sheet name="TcSC023" sheetId="34" r:id="rId31"/>
-    <sheet name="TcSC041" sheetId="35" r:id="rId32"/>
-    <sheet name="TcSC042" sheetId="36" r:id="rId33"/>
-    <sheet name="TcSC043" sheetId="37" r:id="rId34"/>
-    <sheet name="TcSC046" sheetId="38" r:id="rId35"/>
-    <sheet name="TcSC046a" sheetId="39" r:id="rId36"/>
-    <sheet name="TcSC048" sheetId="40" r:id="rId37"/>
-    <sheet name="TcSC049" sheetId="41" r:id="rId38"/>
-    <sheet name="TcSC050" sheetId="42" r:id="rId39"/>
-    <sheet name="TcSC052" sheetId="43" r:id="rId40"/>
-    <sheet name="TcSC053" sheetId="44" r:id="rId41"/>
-    <sheet name="TcSC056" sheetId="45" r:id="rId42"/>
-    <sheet name="TcSC058" sheetId="46" r:id="rId43"/>
-    <sheet name="TcSC059" sheetId="47" r:id="rId44"/>
-    <sheet name="TcSC062" sheetId="48" r:id="rId45"/>
-    <sheet name="TcSC063" sheetId="49" r:id="rId46"/>
-    <sheet name="TcSC064" sheetId="50" r:id="rId47"/>
-    <sheet name="SC082" sheetId="53" r:id="rId48"/>
-    <sheet name="SC083" sheetId="54" r:id="rId49"/>
-    <sheet name="SC084" sheetId="55" r:id="rId50"/>
-    <sheet name="SC084_1" sheetId="56" r:id="rId51"/>
-    <sheet name="SC086" sheetId="57" r:id="rId52"/>
-    <sheet name="GS013" sheetId="58" r:id="rId53"/>
-    <sheet name="GS014" sheetId="59" r:id="rId54"/>
-    <sheet name="CAL007" sheetId="60" r:id="rId55"/>
-    <sheet name="CAL008" sheetId="61" r:id="rId56"/>
-    <sheet name="CAL011A" sheetId="62" r:id="rId57"/>
-    <sheet name="CAL011B" sheetId="63" r:id="rId58"/>
+    <sheet name="SET033" sheetId="86" r:id="rId20"/>
+    <sheet name="TcSC004" sheetId="23" r:id="rId21"/>
+    <sheet name="TcSC005" sheetId="24" r:id="rId22"/>
+    <sheet name="TcSC006" sheetId="25" r:id="rId23"/>
+    <sheet name="TcSC007" sheetId="26" r:id="rId24"/>
+    <sheet name="TcSC012" sheetId="27" r:id="rId25"/>
+    <sheet name="TcSC013" sheetId="28" r:id="rId26"/>
+    <sheet name="TcSC014" sheetId="29" r:id="rId27"/>
+    <sheet name="TcSC015" sheetId="30" r:id="rId28"/>
+    <sheet name="TcSC020" sheetId="31" r:id="rId29"/>
+    <sheet name="TcSC021" sheetId="32" r:id="rId30"/>
+    <sheet name="TcSC022" sheetId="33" r:id="rId31"/>
+    <sheet name="TcSC023" sheetId="34" r:id="rId32"/>
+    <sheet name="TcSC041" sheetId="35" r:id="rId33"/>
+    <sheet name="TcSC042" sheetId="36" r:id="rId34"/>
+    <sheet name="TcSC043" sheetId="37" r:id="rId35"/>
+    <sheet name="TcSC046" sheetId="38" r:id="rId36"/>
+    <sheet name="TcSC046a" sheetId="39" r:id="rId37"/>
+    <sheet name="TcSC048" sheetId="40" r:id="rId38"/>
+    <sheet name="TcSC049" sheetId="41" r:id="rId39"/>
+    <sheet name="TcSC050" sheetId="42" r:id="rId40"/>
+    <sheet name="TcSC052" sheetId="43" r:id="rId41"/>
+    <sheet name="TcSC053" sheetId="44" r:id="rId42"/>
+    <sheet name="TcSC056" sheetId="45" r:id="rId43"/>
+    <sheet name="TcSC058" sheetId="46" r:id="rId44"/>
+    <sheet name="TcSC059" sheetId="47" r:id="rId45"/>
+    <sheet name="TcSC062" sheetId="48" r:id="rId46"/>
+    <sheet name="TcSC063" sheetId="49" r:id="rId47"/>
+    <sheet name="TcSC064" sheetId="50" r:id="rId48"/>
+    <sheet name="SC082" sheetId="53" r:id="rId49"/>
+    <sheet name="SC083" sheetId="54" r:id="rId50"/>
+    <sheet name="SC084" sheetId="55" r:id="rId51"/>
+    <sheet name="SC084_1" sheetId="56" r:id="rId52"/>
+    <sheet name="SC086" sheetId="57" r:id="rId53"/>
+    <sheet name="SC110" sheetId="84" r:id="rId54"/>
+    <sheet name="GS013" sheetId="58" r:id="rId55"/>
+    <sheet name="GS014" sheetId="59" r:id="rId56"/>
+    <sheet name="CAL007" sheetId="60" r:id="rId57"/>
+    <sheet name="CAL008" sheetId="61" r:id="rId58"/>
     <sheet name="CAL012" sheetId="64" r:id="rId59"/>
-    <sheet name="CAL013A" sheetId="68" r:id="rId60"/>
+    <sheet name="CAL013" sheetId="68" r:id="rId60"/>
     <sheet name="CAL016A" sheetId="65" r:id="rId61"/>
     <sheet name="CAL016B" sheetId="66" r:id="rId62"/>
     <sheet name="CAL017" sheetId="67" r:id="rId63"/>
     <sheet name="CAL018A" sheetId="69" r:id="rId64"/>
-    <sheet name="QP011" sheetId="83" r:id="rId65"/>
+    <sheet name="QP011" sheetId="85" r:id="rId65"/>
     <sheet name="QP014A" sheetId="70" r:id="rId66"/>
     <sheet name="QP016A" sheetId="71" r:id="rId67"/>
     <sheet name="QP012" sheetId="73" r:id="rId68"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="849">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -2058,15 +2058,9 @@
     <t>Setup Name accepts alpha numeric and special characters like space,-,_,?,and .</t>
   </si>
   <si>
-    <t>Dtempmin</t>
-  </si>
-  <si>
     <t>Dvalue</t>
   </si>
   <si>
-    <t>Dtempmax</t>
-  </si>
-  <si>
     <t>Zvalmax</t>
   </si>
   <si>
@@ -2118,9 +2112,6 @@
     <t>SS</t>
   </si>
   <si>
-    <t xml:space="preserve"> gfhh</t>
-  </si>
-  <si>
     <t>22test</t>
   </si>
   <si>
@@ -2716,6 +2707,60 @@
   </si>
   <si>
     <t>Setup comments72</t>
+  </si>
+  <si>
+    <t>SWVer</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>1.2.0.15</t>
+  </si>
+  <si>
+    <t>Please Enter Group Name</t>
+  </si>
+  <si>
+    <t>Group Name accepts alpha numeric and special characters like space,-,_ ,.,?,slash (forward and backward).</t>
+  </si>
+  <si>
+    <t>gfhh</t>
+  </si>
+  <si>
+    <t>From value should be lessthan To value,Please give Correct Range</t>
+  </si>
+  <si>
+    <t>Please Give Description for Update</t>
+  </si>
+  <si>
+    <t>A  @#</t>
+  </si>
+  <si>
+    <t>#   a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>ExpDValue</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -2816,7 +2861,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2839,12 +2884,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2950,9 +3006,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3270,28 +3330,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A8F027-47F5-4328-A6D6-95BF3E9A3852}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="13.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="24"/>
-    <col min="8" max="8" width="22.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.109375" style="24"/>
+    <col min="6" max="6" width="13.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="24"/>
+    <col min="8" max="8" width="22.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.88671875" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="24"/>
+    <col min="11" max="12" width="9.109375" style="24"/>
     <col min="13" max="13" width="14" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="9.140625" style="24"/>
-    <col min="27" max="27" width="23.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="24"/>
+    <col min="14" max="14" width="13.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="9.109375" style="24"/>
+    <col min="27" max="27" width="23.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>470</v>
       </c>
@@ -3334,61 +3394,61 @@
       <c r="N1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="55" t="s">
+      <c r="V1" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="55" t="s">
+      <c r="W1" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="55" t="s">
+      <c r="X1" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="55" t="s">
+      <c r="Y1" s="54" t="s">
         <v>120</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AA1" s="55" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB1" s="55" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA1" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB1" s="54" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>526</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>527</v>
@@ -3400,13 +3460,13 @@
         <v>313</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>545</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>468</v>
@@ -3415,13 +3475,13 @@
         <v>26</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>97</v>
@@ -3457,24 +3517,24 @@
         <v>274</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB2" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>476</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>477</v>
@@ -3486,13 +3546,13 @@
         <v>313</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>468</v>
@@ -3501,10 +3561,10 @@
         <v>26</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O3" s="25" t="s">
         <v>125</v>
@@ -3543,24 +3603,24 @@
         <v>275</v>
       </c>
       <c r="AA3" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB3" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>479</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>480</v>
@@ -3572,7 +3632,7 @@
         <v>313</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>545</v>
@@ -3587,10 +3647,10 @@
         <v>26</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O4" s="25" t="s">
         <v>125</v>
@@ -3629,24 +3689,24 @@
         <v>277</v>
       </c>
       <c r="AA4" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>482</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>483</v>
@@ -3658,10 +3718,10 @@
         <v>313</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>182</v>
@@ -3673,10 +3733,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O5" s="25" t="s">
         <v>125</v>
@@ -3715,24 +3775,24 @@
         <v>279</v>
       </c>
       <c r="AA5" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>484</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>485</v>
@@ -3744,7 +3804,7 @@
         <v>313</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>545</v>
@@ -3759,10 +3819,10 @@
         <v>26</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O6" s="25" t="s">
         <v>125</v>
@@ -3801,24 +3861,24 @@
         <v>280</v>
       </c>
       <c r="AA6" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB6" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>486</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>487</v>
@@ -3830,10 +3890,10 @@
         <v>313</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>188</v>
@@ -3845,10 +3905,10 @@
         <v>26</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>125</v>
@@ -3887,24 +3947,24 @@
         <v>281</v>
       </c>
       <c r="AA7" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB7" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>488</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>489</v>
@@ -3916,7 +3976,7 @@
         <v>313</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>190</v>
@@ -3931,10 +3991,10 @@
         <v>26</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O8" s="25" t="s">
         <v>125</v>
@@ -3973,24 +4033,24 @@
         <v>282</v>
       </c>
       <c r="AA8" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB8" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>491</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>492</v>
@@ -4002,7 +4062,7 @@
         <v>313</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>196</v>
@@ -4017,10 +4077,10 @@
         <v>26</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O9" s="25" t="s">
         <v>125</v>
@@ -4059,24 +4119,24 @@
         <v>284</v>
       </c>
       <c r="AA9" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB9" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>494</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>495</v>
@@ -4088,13 +4148,13 @@
         <v>313</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>202</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>468</v>
@@ -4103,13 +4163,13 @@
         <v>26</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>98</v>
@@ -4145,24 +4205,24 @@
         <v>286</v>
       </c>
       <c r="AA10" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB10" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>497</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>498</v>
@@ -4174,7 +4234,7 @@
         <v>313</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>208</v>
@@ -4189,10 +4249,10 @@
         <v>26</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O11" s="25" t="s">
         <v>125</v>
@@ -4231,24 +4291,24 @@
         <v>288</v>
       </c>
       <c r="AA11" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB11" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>499</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>500</v>
@@ -4260,7 +4320,7 @@
         <v>313</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>211</v>
@@ -4275,10 +4335,10 @@
         <v>26</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O12" s="25" t="s">
         <v>125</v>
@@ -4317,24 +4377,24 @@
         <v>289</v>
       </c>
       <c r="AA12" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>501</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>502</v>
@@ -4346,7 +4406,7 @@
         <v>313</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>214</v>
@@ -4361,10 +4421,10 @@
         <v>26</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O13" s="25" t="s">
         <v>125</v>
@@ -4403,24 +4463,24 @@
         <v>290</v>
       </c>
       <c r="AA13" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB13" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>503</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>504</v>
@@ -4432,7 +4492,7 @@
         <v>313</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>217</v>
@@ -4447,10 +4507,10 @@
         <v>26</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O14" s="25" t="s">
         <v>125</v>
@@ -4489,24 +4549,24 @@
         <v>291</v>
       </c>
       <c r="AA14" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB14" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>508</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>509</v>
@@ -4518,7 +4578,7 @@
         <v>313</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>545</v>
@@ -4533,10 +4593,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>125</v>
@@ -4575,24 +4635,24 @@
         <v>295</v>
       </c>
       <c r="AA15" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB15" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>510</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>511</v>
@@ -4604,7 +4664,7 @@
         <v>313</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I16" s="25" t="s">
         <v>235</v>
@@ -4619,10 +4679,10 @@
         <v>26</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O16" s="25" t="s">
         <v>125</v>
@@ -4661,24 +4721,24 @@
         <v>297</v>
       </c>
       <c r="AA16" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB16" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>512</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>513</v>
@@ -4690,13 +4750,13 @@
         <v>313</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>241</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K17" s="25" t="s">
         <v>468</v>
@@ -4705,13 +4765,13 @@
         <v>26</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O17" s="25" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="P17" s="24" t="s">
         <v>98</v>
@@ -4747,24 +4807,24 @@
         <v>299</v>
       </c>
       <c r="AA17" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB17" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>514</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>515</v>
@@ -4776,7 +4836,7 @@
         <v>313</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="I18" s="25" t="s">
         <v>244</v>
@@ -4791,10 +4851,10 @@
         <v>26</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O18" s="25" t="s">
         <v>125</v>
@@ -4833,24 +4893,24 @@
         <v>300</v>
       </c>
       <c r="AA18" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB18" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>516</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>517</v>
@@ -4862,13 +4922,13 @@
         <v>313</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>545</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>468</v>
@@ -4877,13 +4937,13 @@
         <v>26</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O19" s="25" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="P19" s="24" t="s">
         <v>98</v>
@@ -4919,24 +4979,24 @@
         <v>305</v>
       </c>
       <c r="AA19" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB19" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>518</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>519</v>
@@ -4948,7 +5008,7 @@
         <v>313</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>268</v>
@@ -4963,10 +5023,10 @@
         <v>26</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O20" s="25" t="s">
         <v>125</v>
@@ -5005,24 +5065,24 @@
         <v>308</v>
       </c>
       <c r="AA20" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB20" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>520</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>521</v>
@@ -5034,7 +5094,7 @@
         <v>313</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>545</v>
@@ -5049,10 +5109,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O21" s="25" t="s">
         <v>125</v>
@@ -5091,24 +5151,24 @@
         <v>319</v>
       </c>
       <c r="AA21" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB21" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>522</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>523</v>
@@ -5120,7 +5180,7 @@
         <v>313</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I22" s="25" t="s">
         <v>323</v>
@@ -5135,10 +5195,10 @@
         <v>26</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O22" s="25" t="s">
         <v>125</v>
@@ -5177,24 +5237,24 @@
         <v>325</v>
       </c>
       <c r="AA22" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB22" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>524</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>525</v>
@@ -5206,7 +5266,7 @@
         <v>313</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>358</v>
@@ -5221,10 +5281,10 @@
         <v>26</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O23" s="25" t="s">
         <v>125</v>
@@ -5263,42 +5323,42 @@
         <v>360</v>
       </c>
       <c r="AA23" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB23" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>481</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>313</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>468</v>
@@ -5307,10 +5367,10 @@
         <v>26</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O24" s="25" t="s">
         <v>125</v>
@@ -5346,45 +5406,45 @@
         <v>126</v>
       </c>
       <c r="Z24" s="25" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AA24" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB24" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>485</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>313</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="K25" s="25" t="s">
         <v>468</v>
@@ -5393,10 +5453,10 @@
         <v>26</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O25" s="25" t="s">
         <v>125</v>
@@ -5432,45 +5492,45 @@
         <v>106</v>
       </c>
       <c r="Z25" s="25" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="AA25" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB25" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>489</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>313</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>545</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K26" s="25" t="s">
         <v>468</v>
@@ -5479,10 +5539,10 @@
         <v>26</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O26" s="25" t="s">
         <v>125</v>
@@ -5518,45 +5578,45 @@
         <v>106</v>
       </c>
       <c r="Z26" s="25" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AA26" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB26" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>492</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>313</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K27" s="25" t="s">
         <v>468</v>
@@ -5565,10 +5625,10 @@
         <v>26</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O27" s="25" t="s">
         <v>125</v>
@@ -5604,45 +5664,45 @@
         <v>106</v>
       </c>
       <c r="Z27" s="25" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AA27" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB27" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>495</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>313</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K28" s="25" t="s">
         <v>468</v>
@@ -5651,10 +5711,10 @@
         <v>26</v>
       </c>
       <c r="M28" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O28" s="25" t="s">
         <v>125</v>
@@ -5690,45 +5750,45 @@
         <v>107</v>
       </c>
       <c r="Z28" s="25" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="AA28" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB28" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>505</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>313</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="K29" s="25" t="s">
         <v>468</v>
@@ -5737,10 +5797,10 @@
         <v>26</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O29" s="25" t="s">
         <v>125</v>
@@ -5776,45 +5836,45 @@
         <v>106</v>
       </c>
       <c r="Z29" s="25" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="AA29" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB29" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>506</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>313</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>468</v>
@@ -5823,10 +5883,10 @@
         <v>26</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O30" s="25" t="s">
         <v>125</v>
@@ -5862,45 +5922,45 @@
         <v>106</v>
       </c>
       <c r="Z30" s="25" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AA30" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB30" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>507</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>313</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="K31" s="25" t="s">
         <v>468</v>
@@ -5909,13 +5969,13 @@
         <v>26</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O31" s="25" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="P31" s="24" t="s">
         <v>97</v>
@@ -5948,13 +6008,13 @@
         <v>106</v>
       </c>
       <c r="Z31" s="25" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="AA31" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB31" s="25" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -5973,32 +6033,32 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -6016,13 +6076,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -6030,7 +6090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
@@ -6038,7 +6098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
@@ -6046,7 +6106,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
@@ -6054,7 +6114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
@@ -6062,7 +6122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -6070,7 +6130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>43</v>
       </c>
@@ -6078,7 +6138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
@@ -6086,7 +6146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -6094,7 +6154,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
@@ -6102,7 +6162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
@@ -6110,7 +6170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -6118,7 +6178,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
@@ -6126,7 +6186,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
@@ -6134,7 +6194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
@@ -6142,7 +6202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>52</v>
       </c>
@@ -6150,7 +6210,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
@@ -6158,7 +6218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
@@ -6166,7 +6226,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
@@ -6174,7 +6234,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>56</v>
       </c>
@@ -6182,7 +6242,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
@@ -6190,7 +6250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
@@ -6198,7 +6258,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
@@ -6206,7 +6266,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
@@ -6214,7 +6274,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>61</v>
       </c>
@@ -6222,7 +6282,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>62</v>
       </c>
@@ -6230,7 +6290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>63</v>
       </c>
@@ -6238,7 +6298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>64</v>
       </c>
@@ -6246,7 +6306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>65</v>
       </c>
@@ -6267,13 +6327,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -6281,7 +6341,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -6302,13 +6362,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
@@ -6316,7 +6376,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
@@ -6324,7 +6384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
@@ -6332,7 +6392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
@@ -6340,7 +6400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
@@ -6348,7 +6408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
@@ -6356,7 +6416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
@@ -6364,7 +6424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
@@ -6372,7 +6432,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -6380,7 +6440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
@@ -6388,7 +6448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -6396,7 +6456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -6417,14 +6477,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="103.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="103.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -6435,7 +6495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -6446,7 +6506,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -6457,7 +6517,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -6468,7 +6528,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -6479,7 +6539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -6490,7 +6550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -6501,7 +6561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -6512,7 +6572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -6523,7 +6583,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
@@ -6534,7 +6594,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -6545,7 +6605,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -6556,7 +6616,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -6567,7 +6627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
@@ -6578,7 +6638,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
@@ -6589,7 +6649,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -6600,7 +6660,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -6611,7 +6671,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -6622,7 +6682,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
@@ -6633,7 +6693,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -6644,7 +6704,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -6655,7 +6715,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
@@ -6666,7 +6726,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
@@ -6690,13 +6750,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -6704,7 +6764,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -6725,13 +6785,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="22" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
@@ -6739,7 +6799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>30</v>
       </c>
@@ -6747,7 +6807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>30</v>
       </c>
@@ -6755,7 +6815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
@@ -6763,7 +6823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>30</v>
       </c>
@@ -6771,7 +6831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>30</v>
       </c>
@@ -6779,7 +6839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
@@ -6787,7 +6847,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>30</v>
       </c>
@@ -6795,7 +6855,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>30</v>
       </c>
@@ -6803,7 +6863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -6811,7 +6871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -6819,7 +6879,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -6840,14 +6900,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -6858,7 +6918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -6869,7 +6929,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -6880,7 +6940,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -6891,7 +6951,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -6902,7 +6962,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -6913,7 +6973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -6924,7 +6984,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -6935,7 +6995,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -6946,7 +7006,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
@@ -6957,7 +7017,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -6968,7 +7028,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -6979,7 +7039,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -6990,7 +7050,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
@@ -7001,7 +7061,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
@@ -7012,7 +7072,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -7023,7 +7083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -7034,7 +7094,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -7045,7 +7105,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
@@ -7056,7 +7116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -7067,7 +7127,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -7078,7 +7138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
@@ -7089,7 +7149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
@@ -7113,13 +7173,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -7127,7 +7187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -7135,7 +7195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -7143,7 +7203,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -7161,15 +7221,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -7177,7 +7237,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -7185,7 +7245,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -7206,34 +7266,34 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="24" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="24"/>
-    <col min="14" max="14" width="7.140625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="24"/>
+    <col min="1" max="5" width="9.109375" style="24"/>
+    <col min="6" max="6" width="14.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="24"/>
+    <col min="14" max="14" width="7.109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="24"/>
     <col min="16" max="16" width="18" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="24" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" style="24" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.33203125" style="24" customWidth="1"/>
     <col min="24" max="24" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="24"/>
-    <col min="26" max="26" width="8.5703125" style="24" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="24"/>
+    <col min="25" max="25" width="9.109375" style="24"/>
+    <col min="26" max="26" width="8.5546875" style="24" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>470</v>
       </c>
@@ -7276,44 +7336,44 @@
       <c r="N1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="55" t="s">
+      <c r="V1" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="55" t="s">
+      <c r="W1" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="55" t="s">
+      <c r="X1" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="55" t="s">
+      <c r="Y1" s="54" t="s">
         <v>120</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>533</v>
       </c>
@@ -7393,7 +7453,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>534</v>
       </c>
@@ -7473,12 +7533,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>475</v>
@@ -7490,19 +7550,19 @@
         <v>478</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="K4" s="25" t="s">
         <v>124</v>
@@ -7550,15 +7610,15 @@
         <v>139</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>475</v>
@@ -7570,19 +7630,19 @@
         <v>480</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>124</v>
@@ -7624,21 +7684,21 @@
         <v>127</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="Y5" s="25" t="s">
         <v>140</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>475</v>
@@ -7650,19 +7710,19 @@
         <v>481</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>124</v>
@@ -7710,15 +7770,15 @@
         <v>126</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>475</v>
@@ -7730,19 +7790,19 @@
         <v>483</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>124</v>
@@ -7790,15 +7850,15 @@
         <v>106</v>
       </c>
       <c r="Z7" s="25" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>475</v>
@@ -7810,19 +7870,19 @@
         <v>485</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>124</v>
@@ -7870,15 +7930,15 @@
         <v>106</v>
       </c>
       <c r="Z8" s="25" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>475</v>
@@ -7890,19 +7950,19 @@
         <v>487</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>124</v>
@@ -7950,15 +8010,15 @@
         <v>106</v>
       </c>
       <c r="Z9" s="25" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>475</v>
@@ -7970,19 +8030,19 @@
         <v>489</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>545</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>124</v>
@@ -8030,15 +8090,15 @@
         <v>106</v>
       </c>
       <c r="Z10" s="25" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>475</v>
@@ -8050,19 +8110,19 @@
         <v>490</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="K11" s="25" t="s">
         <v>124</v>
@@ -8110,15 +8170,15 @@
         <v>106</v>
       </c>
       <c r="Z11" s="25" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>475</v>
@@ -8130,19 +8190,19 @@
         <v>492</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K12" s="25" t="s">
         <v>124</v>
@@ -8190,15 +8250,15 @@
         <v>106</v>
       </c>
       <c r="Z12" s="25" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>475</v>
@@ -8210,19 +8270,19 @@
         <v>493</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="K13" s="25" t="s">
         <v>124</v>
@@ -8270,15 +8330,15 @@
         <v>106</v>
       </c>
       <c r="Z13" s="25" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>475</v>
@@ -8290,19 +8350,19 @@
         <v>495</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>124</v>
@@ -8350,15 +8410,15 @@
         <v>107</v>
       </c>
       <c r="Z14" s="25" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>475</v>
@@ -8370,19 +8430,19 @@
         <v>496</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="K15" s="25" t="s">
         <v>124</v>
@@ -8430,15 +8490,15 @@
         <v>106</v>
       </c>
       <c r="Z15" s="25" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>475</v>
@@ -8450,19 +8510,19 @@
         <v>498</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="K16" s="25" t="s">
         <v>124</v>
@@ -8510,15 +8570,15 @@
         <v>139</v>
       </c>
       <c r="Z16" s="25" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>475</v>
@@ -8530,19 +8590,19 @@
         <v>500</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="K17" s="25" t="s">
         <v>124</v>
@@ -8590,15 +8650,15 @@
         <v>140</v>
       </c>
       <c r="Z17" s="25" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>475</v>
@@ -8610,19 +8670,19 @@
         <v>502</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>124</v>
@@ -8670,15 +8730,15 @@
         <v>126</v>
       </c>
       <c r="Z18" s="25" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>475</v>
@@ -8690,19 +8750,19 @@
         <v>504</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>124</v>
@@ -8750,15 +8810,15 @@
         <v>106</v>
       </c>
       <c r="Z19" s="25" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>475</v>
@@ -8770,19 +8830,19 @@
         <v>505</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>124</v>
@@ -8830,15 +8890,15 @@
         <v>106</v>
       </c>
       <c r="Z20" s="25" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>475</v>
@@ -8850,19 +8910,19 @@
         <v>506</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="K21" s="25" t="s">
         <v>124</v>
@@ -8910,15 +8970,15 @@
         <v>106</v>
       </c>
       <c r="Z21" s="25" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>475</v>
@@ -8930,19 +8990,19 @@
         <v>507</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="K22" s="25" t="s">
         <v>124</v>
@@ -8990,15 +9050,15 @@
         <v>106</v>
       </c>
       <c r="Z22" s="25" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>475</v>
@@ -9010,19 +9070,19 @@
         <v>509</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>95</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="K23" s="25" t="s">
         <v>124</v>
@@ -9070,7 +9130,7 @@
         <v>107</v>
       </c>
       <c r="Z23" s="25" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -9082,6 +9142,34 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D834BE-A95E-4546-B968-50BE35496156}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>836</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7961DBD6-4436-47D1-BABD-74842E04A379}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9089,24 +9177,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>300</v>
       </c>
@@ -9119,7 +9207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1326DB45-F260-4780-8881-19AD61FE6C1C}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -9127,22 +9215,22 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>36</v>
       </c>
@@ -9152,7 +9240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE92E83-2079-4084-81B4-2317FB073055}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9160,24 +9248,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>556</v>
       </c>
@@ -9190,7 +9278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1BD71B-9638-437F-913B-9177E63E8265}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9198,24 +9286,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>557</v>
       </c>
@@ -9228,7 +9316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D9327-33FB-48BE-B660-7B2E215397CF}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9236,24 +9324,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>300</v>
       </c>
@@ -9266,7 +9354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE2DC85-D9A9-4EA3-8E96-4625E433277C}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -9274,22 +9362,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>36</v>
       </c>
@@ -9299,7 +9387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67006BD4-503B-46C1-9F4B-66B0636F9DE6}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9307,24 +9395,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>556</v>
       </c>
@@ -9337,7 +9425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD3CE9F-CF7B-478B-9987-865141859C02}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9345,24 +9433,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>557</v>
       </c>
@@ -9375,7 +9463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E86B5D8-B641-4336-8CE5-83E6B69A2615}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9383,24 +9471,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>561</v>
       </c>
@@ -9409,36 +9497,6 @@
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{42AEC75B-1290-4734-9613-BCF0B8C95192}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9389C87C-96E8-46AF-B96E-3F9785ACA4DA}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9451,28 +9509,28 @@
       <selection activeCell="L2" sqref="L2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="24"/>
-    <col min="9" max="9" width="7.140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="24"/>
-    <col min="11" max="11" width="20.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="9.140625" style="24"/>
-    <col min="21" max="21" width="8.5703125" style="24" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="11.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="24"/>
+    <col min="9" max="9" width="7.109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="24"/>
+    <col min="11" max="11" width="20.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="24" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="9.109375" style="24"/>
+    <col min="21" max="21" width="8.5546875" style="24" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -9537,7 +9595,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>121</v>
       </c>
@@ -9602,7 +9660,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>122</v>
       </c>
@@ -9667,7 +9725,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>123</v>
       </c>
@@ -9732,7 +9790,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>141</v>
       </c>
@@ -9797,7 +9855,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>142</v>
       </c>
@@ -9862,7 +9920,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>143</v>
       </c>
@@ -9927,7 +9985,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>144</v>
       </c>
@@ -9992,7 +10050,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>145</v>
       </c>
@@ -10057,7 +10115,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>146</v>
       </c>
@@ -10122,7 +10180,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>147</v>
       </c>
@@ -10187,7 +10245,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>148</v>
       </c>
@@ -10252,7 +10310,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>149</v>
       </c>
@@ -10317,7 +10375,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>150</v>
       </c>
@@ -10382,7 +10440,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>151</v>
       </c>
@@ -10447,7 +10505,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>152</v>
       </c>
@@ -10512,7 +10570,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>153</v>
       </c>
@@ -10577,7 +10635,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>154</v>
       </c>
@@ -10642,7 +10700,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>155</v>
       </c>
@@ -10707,7 +10765,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>156</v>
       </c>
@@ -10772,7 +10830,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>157</v>
       </c>
@@ -10837,7 +10895,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>158</v>
       </c>
@@ -10902,7 +10960,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>159</v>
       </c>
@@ -10967,7 +11025,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>160</v>
       </c>
@@ -11032,7 +11090,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>161</v>
       </c>
@@ -11097,7 +11155,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>162</v>
       </c>
@@ -11162,7 +11220,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>163</v>
       </c>
@@ -11227,7 +11285,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>164</v>
       </c>
@@ -11292,7 +11350,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>165</v>
       </c>
@@ -11357,7 +11415,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>166</v>
       </c>
@@ -11422,7 +11480,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>167</v>
       </c>
@@ -11487,7 +11545,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>168</v>
       </c>
@@ -11552,7 +11610,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>169</v>
       </c>
@@ -11617,7 +11675,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>170</v>
       </c>
@@ -11682,7 +11740,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>171</v>
       </c>
@@ -11747,7 +11805,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>172</v>
       </c>
@@ -11812,7 +11870,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>173</v>
       </c>
@@ -11877,7 +11935,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>315</v>
       </c>
@@ -11942,7 +12000,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>320</v>
       </c>
@@ -12007,7 +12065,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>326</v>
       </c>
@@ -12072,7 +12130,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
         <v>332</v>
       </c>
@@ -12137,7 +12195,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
         <v>338</v>
       </c>
@@ -12202,7 +12260,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
         <v>344</v>
       </c>
@@ -12267,7 +12325,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
         <v>349</v>
       </c>
@@ -12332,7 +12390,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
         <v>355</v>
       </c>
@@ -12397,7 +12455,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>361</v>
       </c>
@@ -12462,7 +12520,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>367</v>
       </c>
@@ -12527,7 +12585,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
         <v>373</v>
       </c>
@@ -12592,7 +12650,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
         <v>379</v>
       </c>
@@ -12657,7 +12715,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
         <v>385</v>
       </c>
@@ -12722,7 +12780,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>391</v>
       </c>
@@ -12796,6 +12854,36 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9389C87C-96E8-46AF-B96E-3F9785ACA4DA}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3615A2-BAB5-4692-BB3F-3BBFCAC2FC7C}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -12803,24 +12891,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>556</v>
       </c>
@@ -12833,7 +12921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF45BF0D-0E96-4443-A5EA-26F22BCECFBF}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -12841,24 +12929,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>557</v>
       </c>
@@ -12871,7 +12959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474458A1-C57F-4895-9FE1-1DA1ED40E47D}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -12879,24 +12967,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>26</v>
       </c>
@@ -12909,7 +12997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E98BE91-B8FB-48D4-8638-137912EF2E7F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -12917,9 +13005,9 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -12927,7 +13015,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>312</v>
       </c>
@@ -12935,7 +13023,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>362</v>
       </c>
@@ -12943,7 +13031,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>374</v>
       </c>
@@ -12959,7 +13047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A143E65-F6ED-48E1-8F74-41C24F67C29F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -12967,9 +13055,9 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -12977,7 +13065,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>564</v>
       </c>
@@ -12985,7 +13073,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>565</v>
       </c>
@@ -12993,7 +13081,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>567</v>
       </c>
@@ -13009,7 +13097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07275F25-05CB-4A94-BD1C-BF2E0414CD49}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -13017,9 +13105,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13027,7 +13115,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13035,7 +13123,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13043,7 +13131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>95</v>
       </c>
@@ -13060,7 +13148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBD2B57-FA68-4757-9339-E89EEE7E9323}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -13068,9 +13156,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13078,7 +13166,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>568</v>
       </c>
@@ -13091,7 +13179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E67AB17-13D9-43E6-90F4-50FFC59C8A3A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -13099,9 +13187,9 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13112,7 +13200,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>124</v>
       </c>
@@ -13123,7 +13211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>570</v>
       </c>
@@ -13134,7 +13222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>571</v>
       </c>
@@ -13153,7 +13241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764E67A7-7583-414F-AF9A-B8DF3B8B52D1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -13161,9 +13249,9 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13174,7 +13262,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>368</v>
       </c>
@@ -13185,7 +13273,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>333</v>
       </c>
@@ -13196,7 +13284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>374</v>
       </c>
@@ -13210,68 +13298,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{071A94A2-8D3A-4C5D-A0F1-27B87DD5478B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92155A5-4185-4ADD-A720-D2A9D7567C9D}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="C3" s="16">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>573</v>
-      </c>
-      <c r="B4" s="16">
-        <v>111</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>577</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{DA5FAAA5-18C3-4E7C-8668-F630208E0C18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13285,13 +13311,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>470</v>
       </c>
@@ -13311,7 +13337,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>546</v>
       </c>
@@ -13337,6 +13363,68 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92155A5-4185-4ADD-A720-D2A9D7567C9D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C3" s="16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4" s="16">
+        <v>111</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{DA5FAAA5-18C3-4E7C-8668-F630208E0C18}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453DFC48-1FFB-48CE-8EA6-08D28073589D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -13344,9 +13432,9 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13357,7 +13445,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>95</v>
       </c>
@@ -13368,7 +13456,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>321</v>
       </c>
@@ -13384,17 +13472,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D70291-5326-41BE-8121-41EA3C17D844}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13405,7 +13493,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13416,7 +13504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13427,7 +13515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>339</v>
       </c>
@@ -13446,7 +13534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8594B2CD-0BBB-4399-AFFB-3832AB8C780E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -13454,9 +13542,9 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13464,7 +13552,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13472,7 +13560,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13480,7 +13568,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>339</v>
       </c>
@@ -13488,7 +13576,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>5</v>
       </c>
@@ -13496,7 +13584,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>4</v>
       </c>
@@ -13512,7 +13600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C567BC-8AE4-45D3-BA77-83DDFC2CA907}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -13520,9 +13608,9 @@
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13530,7 +13618,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13538,7 +13626,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13546,7 +13634,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>339</v>
       </c>
@@ -13554,7 +13642,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>15</v>
       </c>
@@ -13562,7 +13650,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>12</v>
       </c>
@@ -13570,7 +13658,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
         <v>13</v>
       </c>
@@ -13578,7 +13666,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>14</v>
       </c>
@@ -13597,7 +13685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B08334-4E5C-49C1-8F70-34C07DC81D8C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -13605,9 +13693,9 @@
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13615,7 +13703,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13623,7 +13711,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13634,7 +13722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971F2D07-2E94-4FEC-8AA3-A1B17E411678}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -13642,9 +13730,9 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13652,7 +13740,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13660,7 +13748,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13668,7 +13756,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>5</v>
       </c>
@@ -13681,7 +13769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C990391-2C55-4309-BB9D-572854DC5428}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -13689,9 +13777,9 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13699,7 +13787,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13707,7 +13795,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13715,7 +13803,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>5</v>
       </c>
@@ -13723,7 +13811,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -13736,7 +13824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7070F16B-CB41-4201-B980-F9D96F29C8B1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -13744,9 +13832,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13754,7 +13842,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13762,7 +13850,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13770,7 +13858,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>5</v>
       </c>
@@ -13778,7 +13866,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -13786,7 +13874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -13794,7 +13882,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -13812,90 +13900,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA04937-DFCC-4806-9F7F-0546CAA9795E}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="67.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>3</v>
+      <c r="B1" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="B5" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97346566-78A9-4319-B164-94E984A72BC6}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>608</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{45B06615-3DAC-4490-975C-6E9A90742AE8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13908,14 +13966,14 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>470</v>
       </c>
@@ -13932,7 +13990,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>548</v>
       </c>
@@ -13955,6 +14013,54 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97346566-78A9-4319-B164-94E984A72BC6}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>608</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{45B06615-3DAC-4490-975C-6E9A90742AE8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C74DE9-2E41-4810-91AE-DD54BAE3C0BD}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -13962,29 +14068,29 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>95</v>
       </c>
@@ -13994,7 +14100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AF1F57-B20E-42DA-9180-1ADB83BA8666}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -14002,34 +14108,34 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>608</v>
       </c>
@@ -14042,55 +14148,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828859B3-C461-4703-8B66-4EEA226FFC8E}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>587</v>
       </c>
@@ -14105,85 +14211,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0179134-7B46-4070-9974-834AA603C489}">
-  <dimension ref="A1:A4"/>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CC74E7-2CC1-4B87-AE13-79E1688F421D}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>635</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159E8A0E-D4DB-4D24-8D1D-64E9969CA3B8}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>602</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -14192,41 +14241,36 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6258765E-8118-45BE-B0E2-A860CFC13885}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0179134-7B46-4070-9974-834AA603C489}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
-        <v>12.15</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -14235,67 +14279,113 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D085BE-1718-4826-8944-55B10BD62A6A}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159E8A0E-D4DB-4D24-8D1D-64E9969CA3B8}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>80</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>837</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{581A2F5B-8163-4D3B-92BB-27E4B3197EF7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88A1508-DFDB-4506-9E85-56CC3E53A216}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6258765E-8118-45BE-B0E2-A860CFC13885}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>38</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32">
+        <v>12.15</v>
       </c>
     </row>
   </sheetData>
@@ -14304,40 +14394,54 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059F8CBA-1988-4DAF-9418-23E32B194BDB}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D085BE-1718-4826-8944-55B10BD62A6A}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
-        <v>9999</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{581A2F5B-8163-4D3B-92BB-27E4B3197EF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14346,35 +14450,35 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>12.23</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>99.99</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>12345</v>
       </c>
@@ -14390,13 +14494,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -14404,7 +14508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -14420,53 +14524,83 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C792F055-E179-4BF3-9556-02ACEEB0C47E}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
+        <v>845</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B5" s="13" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="B6" s="13" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="B7" s="13" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>624</v>
+      <c r="B8" s="13" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{EF19C6A5-D563-47AD-A061-9D686DAC3A06}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{3E188B18-15E3-4CD8-B6D9-92161B077602}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{EF19C6A5-D563-47AD-A061-9D686DAC3A06}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{3E188B18-15E3-4CD8-B6D9-92161B077602}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14480,24 +14614,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="32">
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="32">
         <v>0.1</v>
       </c>
@@ -14515,29 +14649,29 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>3456.89</v>
       </c>
@@ -14555,19 +14689,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>56.78</v>
       </c>
@@ -14579,47 +14713,52 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC4B56-D4AF-495D-9BFD-10852D2CDDE2}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>624</v>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -14632,35 +14771,35 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85731DE-4B0E-4E61-8E15-8D211543687A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2982C417-6600-4E61-9C60-E3D882844A48}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>626</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>11</v>
-      </c>
-      <c r="B2" s="13">
-        <v>11</v>
-      </c>
-      <c r="C2" s="13">
-        <v>11</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -14673,39 +14812,39 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -14721,36 +14860,36 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -14762,30 +14901,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D3609A-3796-4784-8848-7D126234A1CD}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
-        <v>123</v>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51" t="s">
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -14799,36 +14938,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -14844,13 +14983,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
@@ -14858,7 +14997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
@@ -14866,7 +15005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
@@ -14874,7 +15013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -14882,7 +15021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
@@ -14890,7 +15029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -14898,7 +15037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
@@ -14906,7 +15045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
@@ -14924,42 +15063,42 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
-        <v>1234</v>
-      </c>
-      <c r="B2" s="51">
-        <v>34</v>
-      </c>
-      <c r="C2" s="51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
-        <v>1290</v>
-      </c>
-      <c r="B3" s="51">
-        <v>11</v>
-      </c>
-      <c r="C3" s="51">
-        <v>22</v>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>833</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>834</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -14975,29 +15114,29 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="50">
         <v>0</v>
       </c>
@@ -15015,29 +15154,29 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="50">
         <v>0</v>
       </c>
@@ -15053,29 +15192,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="50">
         <v>0</v>
       </c>
@@ -15095,14 +15234,14 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -15113,7 +15252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -15124,7 +15263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -15135,7 +15274,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -15146,7 +15285,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -15157,7 +15296,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -15168,7 +15307,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -15179,7 +15318,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -15190,7 +15329,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -15201,7 +15340,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -15212,7 +15351,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -15223,7 +15362,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -15234,7 +15373,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -15245,7 +15384,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -15256,7 +15395,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -15267,7 +15406,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -15278,7 +15417,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -15289,7 +15428,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -15300,7 +15439,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -15311,7 +15450,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -15322,7 +15461,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -15333,7 +15472,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -15344,7 +15483,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -15369,13 +15508,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -15383,7 +15522,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -15391,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -15399,7 +15538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -15407,7 +15546,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -15415,7 +15554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
@@ -15423,7 +15562,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>301</v>
       </c>

--- a/src/test/resources/TestData/SetupTestData.xlsx
+++ b/src/test/resources/TestData/SetupTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSC\git\VRT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruchika.Behura\git\VRT\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEDB5F8-126C-4F71-9C35-15723A2D58E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061813C8-D9C0-493C-B6BB-B8FDD6EFEDF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="847" firstSheet="52" activeTab="67" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="61" activeTab="71" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupCreation_RT" sheetId="19" r:id="rId1"/>
@@ -32,29 +32,29 @@
     <sheet name="SET020" sheetId="8" r:id="rId17"/>
     <sheet name="SET021" sheetId="15" r:id="rId18"/>
     <sheet name="SET022" sheetId="16" r:id="rId19"/>
-    <sheet name="SET033" sheetId="86" r:id="rId20"/>
-    <sheet name="TcSC004" sheetId="23" r:id="rId21"/>
-    <sheet name="TcSC005" sheetId="24" r:id="rId22"/>
-    <sheet name="TcSC006" sheetId="25" r:id="rId23"/>
-    <sheet name="TcSC007" sheetId="26" r:id="rId24"/>
-    <sheet name="TcSC012" sheetId="27" r:id="rId25"/>
-    <sheet name="TcSC013" sheetId="28" r:id="rId26"/>
-    <sheet name="TcSC014" sheetId="29" r:id="rId27"/>
-    <sheet name="TcSC015" sheetId="30" r:id="rId28"/>
-    <sheet name="TcSC020" sheetId="31" r:id="rId29"/>
-    <sheet name="TcSC021" sheetId="32" r:id="rId30"/>
-    <sheet name="TcSC022" sheetId="33" r:id="rId31"/>
-    <sheet name="TcSC023" sheetId="34" r:id="rId32"/>
-    <sheet name="TcSC041" sheetId="35" r:id="rId33"/>
-    <sheet name="TcSC042" sheetId="36" r:id="rId34"/>
-    <sheet name="TcSC043" sheetId="37" r:id="rId35"/>
-    <sheet name="TcSC046" sheetId="38" r:id="rId36"/>
-    <sheet name="TcSC046a" sheetId="39" r:id="rId37"/>
-    <sheet name="TcSC048" sheetId="40" r:id="rId38"/>
-    <sheet name="TcSC049" sheetId="41" r:id="rId39"/>
-    <sheet name="TcSC050" sheetId="42" r:id="rId40"/>
-    <sheet name="TcSC052" sheetId="43" r:id="rId41"/>
-    <sheet name="TcSC053" sheetId="44" r:id="rId42"/>
+    <sheet name="TcSC004" sheetId="23" r:id="rId20"/>
+    <sheet name="TcSC005" sheetId="24" r:id="rId21"/>
+    <sheet name="TcSC006" sheetId="25" r:id="rId22"/>
+    <sheet name="TcSC007" sheetId="26" r:id="rId23"/>
+    <sheet name="TcSC012" sheetId="27" r:id="rId24"/>
+    <sheet name="TcSC013" sheetId="28" r:id="rId25"/>
+    <sheet name="TcSC014" sheetId="29" r:id="rId26"/>
+    <sheet name="TcSC015" sheetId="30" r:id="rId27"/>
+    <sheet name="TcSC020" sheetId="31" r:id="rId28"/>
+    <sheet name="TcSC021" sheetId="32" r:id="rId29"/>
+    <sheet name="TcSC022" sheetId="33" r:id="rId30"/>
+    <sheet name="TcSC023" sheetId="34" r:id="rId31"/>
+    <sheet name="TcSC041" sheetId="35" r:id="rId32"/>
+    <sheet name="TcSC042" sheetId="36" r:id="rId33"/>
+    <sheet name="TcSC043" sheetId="37" r:id="rId34"/>
+    <sheet name="TcSC046" sheetId="38" r:id="rId35"/>
+    <sheet name="TcSC046a" sheetId="39" r:id="rId36"/>
+    <sheet name="TcSC048" sheetId="40" r:id="rId37"/>
+    <sheet name="TcSC049" sheetId="41" r:id="rId38"/>
+    <sheet name="TcSC050" sheetId="42" r:id="rId39"/>
+    <sheet name="TcSC052" sheetId="43" r:id="rId40"/>
+    <sheet name="TcSC053" sheetId="44" r:id="rId41"/>
+    <sheet name="Sheet1" sheetId="89" r:id="rId42"/>
     <sheet name="TcSC056" sheetId="45" r:id="rId43"/>
     <sheet name="TcSC058" sheetId="46" r:id="rId44"/>
     <sheet name="TcSC059" sheetId="47" r:id="rId45"/>
@@ -84,8 +84,12 @@
     <sheet name="QP018A" sheetId="80" r:id="rId69"/>
     <sheet name="QP028" sheetId="75" r:id="rId70"/>
     <sheet name="QP030" sheetId="77" r:id="rId71"/>
-    <sheet name="QP032" sheetId="78" r:id="rId72"/>
-    <sheet name="QP034" sheetId="81" r:id="rId73"/>
+    <sheet name="QP030A" sheetId="86" r:id="rId72"/>
+    <sheet name="QP032A" sheetId="88" r:id="rId73"/>
+    <sheet name="QP034A" sheetId="87" r:id="rId74"/>
+    <sheet name="QP032" sheetId="78" r:id="rId75"/>
+    <sheet name="QP034" sheetId="81" r:id="rId76"/>
+    <sheet name="SET033" sheetId="90" r:id="rId77"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -116,7 +120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -125,7 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the data in Yr:Mnth:Dt:Hr:Mnt:Sec format. Ex:- 0:0:0:1:0:0, which means one want to set TOD by 1 Hr ahead of the current time stamp.
@@ -153,7 +157,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -162,7 +166,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the data in Yr:Mnth:Dt:Hr:Mnt:Sec format. Ex:- 0:0:0:1:0:0, which means one want to set TOD by 1 Hr ahead of the current time stamp.
@@ -190,7 +194,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -199,7 +203,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the data in Yr:Mnth:Dt:Hr:Mnt:Sec format. Ex:- 0:0:0:1:0:0, which means one want to set TOD by 1 Hr ahead of the current time stamp.
@@ -214,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="854">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -2733,6 +2737,12 @@
     <t>Group Name accepts alpha numeric and special characters like space,-,_ ,.,?,slash (forward and backward).</t>
   </si>
   <si>
+    <t>1  2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
     <t>gfhh</t>
   </si>
   <si>
@@ -2751,16 +2761,25 @@
     <t xml:space="preserve">         </t>
   </si>
   <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t>ExpDValue</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>123</t>
+    <t>ExpValue</t>
+  </si>
+  <si>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>-1111</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1111</t>
   </si>
 </sst>
 </file>
@@ -2793,14 +2812,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -3334,24 +3353,24 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.109375" style="24"/>
-    <col min="6" max="6" width="13.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="24"/>
-    <col min="8" max="8" width="22.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="13.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="24"/>
+    <col min="8" max="8" width="22.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.85546875" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="24"/>
+    <col min="11" max="12" width="9.140625" style="24"/>
     <col min="13" max="13" width="14" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="9.109375" style="24"/>
-    <col min="27" max="27" width="23.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.109375" style="24"/>
+    <col min="14" max="14" width="13.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="9.140625" style="24"/>
+    <col min="27" max="27" width="23.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>470</v>
       </c>
@@ -3437,7 +3456,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>526</v>
       </c>
@@ -3523,7 +3542,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>476</v>
       </c>
@@ -3609,7 +3628,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>479</v>
       </c>
@@ -3695,7 +3714,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>482</v>
       </c>
@@ -3781,7 +3800,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>484</v>
       </c>
@@ -3867,7 +3886,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>486</v>
       </c>
@@ -3953,7 +3972,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>488</v>
       </c>
@@ -4039,7 +4058,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>491</v>
       </c>
@@ -4125,7 +4144,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>494</v>
       </c>
@@ -4211,7 +4230,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>497</v>
       </c>
@@ -4297,7 +4316,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>499</v>
       </c>
@@ -4383,7 +4402,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>501</v>
       </c>
@@ -4469,7 +4488,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>503</v>
       </c>
@@ -4555,7 +4574,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>508</v>
       </c>
@@ -4641,7 +4660,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>510</v>
       </c>
@@ -4727,7 +4746,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>512</v>
       </c>
@@ -4813,7 +4832,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>514</v>
       </c>
@@ -4899,7 +4918,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>516</v>
       </c>
@@ -4985,7 +5004,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>518</v>
       </c>
@@ -5071,7 +5090,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>520</v>
       </c>
@@ -5157,7 +5176,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>522</v>
       </c>
@@ -5243,7 +5262,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>524</v>
       </c>
@@ -5329,7 +5348,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>694</v>
       </c>
@@ -5415,7 +5434,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>701</v>
       </c>
@@ -5501,7 +5520,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>708</v>
       </c>
@@ -5587,7 +5606,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>714</v>
       </c>
@@ -5673,7 +5692,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>721</v>
       </c>
@@ -5759,7 +5778,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>728</v>
       </c>
@@ -5845,7 +5864,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>735</v>
       </c>
@@ -5931,7 +5950,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>742</v>
       </c>
@@ -6033,32 +6052,32 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -6076,13 +6095,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -6090,7 +6109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
@@ -6098,7 +6117,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
@@ -6106,7 +6125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
@@ -6114,7 +6133,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
@@ -6122,7 +6141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -6130,7 +6149,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>43</v>
       </c>
@@ -6138,7 +6157,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
@@ -6146,7 +6165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -6154,7 +6173,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
@@ -6162,7 +6181,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
@@ -6170,7 +6189,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -6178,7 +6197,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
@@ -6186,7 +6205,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
@@ -6194,7 +6213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
@@ -6202,7 +6221,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>52</v>
       </c>
@@ -6210,7 +6229,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
@@ -6218,7 +6237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
@@ -6226,7 +6245,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
@@ -6234,7 +6253,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>56</v>
       </c>
@@ -6242,7 +6261,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
@@ -6250,7 +6269,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
@@ -6258,7 +6277,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
@@ -6266,7 +6285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
@@ -6274,7 +6293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>61</v>
       </c>
@@ -6282,7 +6301,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>62</v>
       </c>
@@ -6290,7 +6309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>63</v>
       </c>
@@ -6298,7 +6317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>64</v>
       </c>
@@ -6306,7 +6325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>65</v>
       </c>
@@ -6327,13 +6346,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -6341,7 +6360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -6362,13 +6381,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
@@ -6376,7 +6395,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
@@ -6384,7 +6403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
@@ -6392,7 +6411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
@@ -6400,7 +6419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
@@ -6408,7 +6427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
@@ -6416,7 +6435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
@@ -6424,7 +6443,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
@@ -6432,7 +6451,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -6440,7 +6459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
@@ -6448,7 +6467,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -6456,7 +6475,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -6477,14 +6496,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="103.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="103.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -6495,7 +6514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -6506,7 +6525,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -6517,7 +6536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -6528,7 +6547,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -6539,7 +6558,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -6550,7 +6569,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -6561,7 +6580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -6572,7 +6591,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -6583,7 +6602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
@@ -6594,7 +6613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -6605,7 +6624,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -6616,7 +6635,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -6627,7 +6646,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
@@ -6638,7 +6657,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
@@ -6649,7 +6668,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -6660,7 +6679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -6671,7 +6690,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -6682,7 +6701,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
@@ -6693,7 +6712,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -6704,7 +6723,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -6715,7 +6734,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
@@ -6726,7 +6745,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
@@ -6750,13 +6769,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -6764,7 +6783,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -6785,13 +6804,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="22" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
@@ -6799,7 +6818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>30</v>
       </c>
@@ -6807,7 +6826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>30</v>
       </c>
@@ -6815,7 +6834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
@@ -6823,7 +6842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>30</v>
       </c>
@@ -6831,7 +6850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>30</v>
       </c>
@@ -6839,7 +6858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
@@ -6847,7 +6866,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>30</v>
       </c>
@@ -6855,7 +6874,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>30</v>
       </c>
@@ -6863,7 +6882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -6871,7 +6890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -6879,7 +6898,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -6900,14 +6919,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -6918,7 +6937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -6929,7 +6948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -6940,7 +6959,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -6951,7 +6970,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -6962,7 +6981,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -6973,7 +6992,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -6984,7 +7003,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -6995,7 +7014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -7006,7 +7025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
@@ -7017,7 +7036,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -7028,7 +7047,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -7039,7 +7058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -7050,7 +7069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
@@ -7061,7 +7080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
@@ -7072,7 +7091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -7083,7 +7102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -7094,7 +7113,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -7105,7 +7124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
@@ -7116,7 +7135,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -7127,7 +7146,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -7138,7 +7157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
@@ -7149,7 +7168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
@@ -7173,13 +7192,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -7187,7 +7206,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -7195,7 +7214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -7203,7 +7222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -7221,15 +7240,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -7237,7 +7256,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -7245,7 +7264,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -7262,38 +7281,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E6EA59-4485-4F31-B12C-06AF6BC0EF0F}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.109375" style="24"/>
-    <col min="6" max="6" width="14.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="24" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="24"/>
-    <col min="14" max="14" width="7.109375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="24"/>
+    <col min="1" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="24"/>
+    <col min="14" max="14" width="7.140625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="24"/>
     <col min="16" max="16" width="18" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.109375" style="24" customWidth="1"/>
-    <col min="20" max="20" width="7.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.33203125" style="24" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="24" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="24" customWidth="1"/>
     <col min="24" max="24" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.109375" style="24"/>
-    <col min="26" max="26" width="8.5546875" style="24" customWidth="1"/>
-    <col min="27" max="16384" width="9.109375" style="24"/>
+    <col min="25" max="25" width="9.140625" style="24"/>
+    <col min="26" max="26" width="8.5703125" style="24" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>470</v>
       </c>
@@ -7373,7 +7392,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>533</v>
       </c>
@@ -7453,7 +7472,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>534</v>
       </c>
@@ -7533,7 +7552,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>749</v>
       </c>
@@ -7613,7 +7632,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>755</v>
       </c>
@@ -7693,7 +7712,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>694</v>
       </c>
@@ -7773,7 +7792,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>763</v>
       </c>
@@ -7853,7 +7872,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>701</v>
       </c>
@@ -7933,7 +7952,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>770</v>
       </c>
@@ -8013,7 +8032,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>708</v>
       </c>
@@ -8093,7 +8112,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>777</v>
       </c>
@@ -8173,7 +8192,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>714</v>
       </c>
@@ -8253,7 +8272,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>784</v>
       </c>
@@ -8333,7 +8352,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>721</v>
       </c>
@@ -8413,7 +8432,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>791</v>
       </c>
@@ -8493,7 +8512,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>797</v>
       </c>
@@ -8573,7 +8592,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>803</v>
       </c>
@@ -8653,7 +8672,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>809</v>
       </c>
@@ -8733,7 +8752,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>815</v>
       </c>
@@ -8813,7 +8832,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>728</v>
       </c>
@@ -8893,7 +8912,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>735</v>
       </c>
@@ -8973,7 +8992,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>742</v>
       </c>
@@ -9053,7 +9072,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>825</v>
       </c>
@@ -9142,34 +9161,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D834BE-A95E-4546-B968-50BE35496156}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>836</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7961DBD6-4436-47D1-BABD-74842E04A379}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9177,24 +9168,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>300</v>
       </c>
@@ -9207,7 +9198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1326DB45-F260-4780-8881-19AD61FE6C1C}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -9215,22 +9206,22 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>36</v>
       </c>
@@ -9240,7 +9231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE92E83-2079-4084-81B4-2317FB073055}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9248,24 +9239,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>556</v>
       </c>
@@ -9278,7 +9269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1BD71B-9638-437F-913B-9177E63E8265}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9286,24 +9277,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>557</v>
       </c>
@@ -9316,7 +9307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D9327-33FB-48BE-B660-7B2E215397CF}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9324,24 +9315,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>300</v>
       </c>
@@ -9354,7 +9345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE2DC85-D9A9-4EA3-8E96-4625E433277C}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -9362,22 +9353,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>36</v>
       </c>
@@ -9387,7 +9378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67006BD4-503B-46C1-9F4B-66B0636F9DE6}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9395,24 +9386,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>556</v>
       </c>
@@ -9425,7 +9416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD3CE9F-CF7B-478B-9987-865141859C02}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9433,24 +9424,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>557</v>
       </c>
@@ -9463,7 +9454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E86B5D8-B641-4336-8CE5-83E6B69A2615}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9471,24 +9462,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>561</v>
       </c>
@@ -9497,6 +9488,36 @@
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{42AEC75B-1290-4734-9613-BCF0B8C95192}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9389C87C-96E8-46AF-B96E-3F9785ACA4DA}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9509,28 +9530,28 @@
       <selection activeCell="L2" sqref="L2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="24"/>
-    <col min="9" max="9" width="7.109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="24"/>
-    <col min="11" max="11" width="20.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" style="24" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="9.109375" style="24"/>
-    <col min="21" max="21" width="8.5546875" style="24" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="24"/>
+    <col min="1" max="1" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="24"/>
+    <col min="9" max="9" width="7.140625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="24"/>
+    <col min="11" max="11" width="20.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="9.140625" style="24"/>
+    <col min="21" max="21" width="8.5703125" style="24" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -9595,7 +9616,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>121</v>
       </c>
@@ -9660,7 +9681,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>122</v>
       </c>
@@ -9725,7 +9746,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>123</v>
       </c>
@@ -9790,7 +9811,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>141</v>
       </c>
@@ -9855,7 +9876,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>142</v>
       </c>
@@ -9920,7 +9941,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>143</v>
       </c>
@@ -9985,7 +10006,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>144</v>
       </c>
@@ -10050,7 +10071,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>145</v>
       </c>
@@ -10115,7 +10136,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>146</v>
       </c>
@@ -10180,7 +10201,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>147</v>
       </c>
@@ -10245,7 +10266,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>148</v>
       </c>
@@ -10310,7 +10331,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>149</v>
       </c>
@@ -10375,7 +10396,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>150</v>
       </c>
@@ -10440,7 +10461,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>151</v>
       </c>
@@ -10505,7 +10526,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>152</v>
       </c>
@@ -10570,7 +10591,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>153</v>
       </c>
@@ -10635,7 +10656,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>154</v>
       </c>
@@ -10700,7 +10721,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>155</v>
       </c>
@@ -10765,7 +10786,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>156</v>
       </c>
@@ -10830,7 +10851,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>157</v>
       </c>
@@ -10895,7 +10916,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>158</v>
       </c>
@@ -10960,7 +10981,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>159</v>
       </c>
@@ -11025,7 +11046,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>160</v>
       </c>
@@ -11090,7 +11111,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>161</v>
       </c>
@@ -11155,7 +11176,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>162</v>
       </c>
@@ -11220,7 +11241,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>163</v>
       </c>
@@ -11285,7 +11306,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>164</v>
       </c>
@@ -11350,7 +11371,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>165</v>
       </c>
@@ -11415,7 +11436,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>166</v>
       </c>
@@ -11480,7 +11501,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>167</v>
       </c>
@@ -11545,7 +11566,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>168</v>
       </c>
@@ -11610,7 +11631,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>169</v>
       </c>
@@ -11675,7 +11696,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>170</v>
       </c>
@@ -11740,7 +11761,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>171</v>
       </c>
@@ -11805,7 +11826,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>172</v>
       </c>
@@ -11870,7 +11891,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>173</v>
       </c>
@@ -11935,7 +11956,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>315</v>
       </c>
@@ -12000,7 +12021,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>320</v>
       </c>
@@ -12065,7 +12086,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>326</v>
       </c>
@@ -12130,7 +12151,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>332</v>
       </c>
@@ -12195,7 +12216,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>338</v>
       </c>
@@ -12260,7 +12281,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>344</v>
       </c>
@@ -12325,7 +12346,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>349</v>
       </c>
@@ -12390,7 +12411,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>355</v>
       </c>
@@ -12455,7 +12476,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>361</v>
       </c>
@@ -12520,7 +12541,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>367</v>
       </c>
@@ -12585,7 +12606,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>373</v>
       </c>
@@ -12650,7 +12671,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>379</v>
       </c>
@@ -12715,7 +12736,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>385</v>
       </c>
@@ -12780,7 +12801,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>391</v>
       </c>
@@ -12854,36 +12875,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9389C87C-96E8-46AF-B96E-3F9785ACA4DA}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3615A2-BAB5-4692-BB3F-3BBFCAC2FC7C}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -12891,24 +12882,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>556</v>
       </c>
@@ -12921,7 +12912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF45BF0D-0E96-4443-A5EA-26F22BCECFBF}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -12929,24 +12920,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>557</v>
       </c>
@@ -12959,7 +12950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474458A1-C57F-4895-9FE1-1DA1ED40E47D}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -12967,24 +12958,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>26</v>
       </c>
@@ -12997,7 +12988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E98BE91-B8FB-48D4-8638-137912EF2E7F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -13005,9 +12996,9 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13015,7 +13006,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>312</v>
       </c>
@@ -13023,7 +13014,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>362</v>
       </c>
@@ -13031,7 +13022,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>374</v>
       </c>
@@ -13047,7 +13038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A143E65-F6ED-48E1-8F74-41C24F67C29F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -13055,9 +13046,9 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13065,7 +13056,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>564</v>
       </c>
@@ -13073,7 +13064,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>565</v>
       </c>
@@ -13081,7 +13072,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>567</v>
       </c>
@@ -13097,7 +13088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07275F25-05CB-4A94-BD1C-BF2E0414CD49}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -13105,9 +13096,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13115,7 +13106,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13123,7 +13114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13131,7 +13122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>95</v>
       </c>
@@ -13148,7 +13139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBD2B57-FA68-4757-9339-E89EEE7E9323}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -13156,9 +13147,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13166,7 +13157,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>568</v>
       </c>
@@ -13179,7 +13170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E67AB17-13D9-43E6-90F4-50FFC59C8A3A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -13187,9 +13178,9 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13200,7 +13191,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>124</v>
       </c>
@@ -13211,7 +13202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>570</v>
       </c>
@@ -13222,7 +13213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>571</v>
       </c>
@@ -13241,7 +13232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764E67A7-7583-414F-AF9A-B8DF3B8B52D1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -13249,9 +13240,9 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13262,7 +13253,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>368</v>
       </c>
@@ -13273,7 +13264,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>333</v>
       </c>
@@ -13284,7 +13275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>374</v>
       </c>
@@ -13298,6 +13289,68 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{071A94A2-8D3A-4C5D-A0F1-27B87DD5478B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92155A5-4185-4ADD-A720-D2A9D7567C9D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C3" s="16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4" s="16">
+        <v>111</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{DA5FAAA5-18C3-4E7C-8668-F630208E0C18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13311,13 +13364,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>470</v>
       </c>
@@ -13337,7 +13390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>546</v>
       </c>
@@ -13363,68 +13416,6 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92155A5-4185-4ADD-A720-D2A9D7567C9D}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="C3" s="16">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>573</v>
-      </c>
-      <c r="B4" s="16">
-        <v>111</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>577</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{DA5FAAA5-18C3-4E7C-8668-F630208E0C18}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453DFC48-1FFB-48CE-8EA6-08D28073589D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -13432,9 +13423,9 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13445,7 +13436,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>95</v>
       </c>
@@ -13456,7 +13447,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>321</v>
       </c>
@@ -13472,17 +13463,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D70291-5326-41BE-8121-41EA3C17D844}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13493,7 +13484,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13504,7 +13495,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13515,7 +13506,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>339</v>
       </c>
@@ -13530,6 +13521,18 @@
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{CFB09D34-6E1D-46D7-B1B5-84E48B09CEF7}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EA38B4-3B73-4D64-A17A-1C3014ED080B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13542,9 +13545,9 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13552,7 +13555,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13560,7 +13563,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13568,7 +13571,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>339</v>
       </c>
@@ -13576,7 +13579,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>5</v>
       </c>
@@ -13584,7 +13587,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>4</v>
       </c>
@@ -13608,9 +13611,9 @@
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13618,7 +13621,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13626,7 +13629,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13634,7 +13637,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>339</v>
       </c>
@@ -13642,7 +13645,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>15</v>
       </c>
@@ -13650,7 +13653,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>12</v>
       </c>
@@ -13658,7 +13661,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
         <v>13</v>
       </c>
@@ -13666,7 +13669,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
         <v>14</v>
       </c>
@@ -13693,9 +13696,9 @@
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13703,7 +13706,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13711,7 +13714,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13730,9 +13733,9 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13740,7 +13743,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13748,7 +13751,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13756,7 +13759,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>5</v>
       </c>
@@ -13777,9 +13780,9 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13787,7 +13790,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13795,7 +13798,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13803,7 +13806,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>5</v>
       </c>
@@ -13811,7 +13814,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -13832,9 +13835,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13842,7 +13845,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13850,7 +13853,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13858,7 +13861,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>5</v>
       </c>
@@ -13866,7 +13869,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -13874,7 +13877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -13882,7 +13885,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -13908,12 +13911,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.33203125" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>603</v>
       </c>
@@ -13921,36 +13924,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>832</v>
       </c>
       <c r="B5" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -13966,14 +13969,14 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>470</v>
       </c>
@@ -13990,7 +13993,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>548</v>
       </c>
@@ -14020,34 +14023,34 @@
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>608</v>
       </c>
@@ -14068,29 +14071,29 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>95</v>
       </c>
@@ -14108,34 +14111,34 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>608</v>
       </c>
@@ -14156,47 +14159,47 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>587</v>
       </c>
@@ -14219,18 +14222,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="24"/>
+    <col min="1" max="1" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>836</v>
       </c>
@@ -14248,27 +14251,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>632</v>
       </c>
@@ -14286,13 +14289,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.44140625" customWidth="1"/>
+    <col min="2" max="2" width="98.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>597</v>
       </c>
@@ -14300,7 +14303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>598</v>
       </c>
@@ -14308,7 +14311,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>599</v>
       </c>
@@ -14316,7 +14319,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>600</v>
       </c>
@@ -14324,7 +14327,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>601</v>
       </c>
@@ -14332,7 +14335,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>602</v>
       </c>
@@ -14340,7 +14343,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>837</v>
       </c>
@@ -14355,35 +14358,35 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>12.15</v>
       </c>
@@ -14401,39 +14404,39 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -14453,32 +14456,32 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="10"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>12.23</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>99.99</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>12345</v>
       </c>
@@ -14494,13 +14497,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -14508,7 +14511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -14524,83 +14527,63 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C792F055-E179-4BF3-9556-02ACEEB0C47E}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
-        <v>845</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>619</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
         <v>620</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>847</v>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{EF19C6A5-D563-47AD-A061-9D686DAC3A06}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{3E188B18-15E3-4CD8-B6D9-92161B077602}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{EF19C6A5-D563-47AD-A061-9D686DAC3A06}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{3E188B18-15E3-4CD8-B6D9-92161B077602}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14614,24 +14597,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
         <v>0.1</v>
       </c>
@@ -14649,29 +14632,29 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3456.89</v>
       </c>
@@ -14689,19 +14672,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>56.78</v>
       </c>
@@ -14719,46 +14702,46 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -14778,9 +14761,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>624</v>
       </c>
@@ -14791,7 +14774,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>321</v>
       </c>
@@ -14815,34 +14798,34 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>629</v>
       </c>
@@ -14860,34 +14843,34 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>629</v>
       </c>
@@ -14899,32 +14882,27 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D3609A-3796-4784-8848-7D126234A1CD}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
-        <v>848</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -14938,34 +14916,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>629</v>
       </c>
@@ -14983,13 +14961,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
@@ -14997,7 +14975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
@@ -15005,7 +14983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
@@ -15013,7 +14991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -15021,7 +14999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
@@ -15029,7 +15007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -15037,7 +15015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
@@ -15045,7 +15023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
@@ -15063,12 +15041,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>624</v>
       </c>
@@ -15079,7 +15057,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>833</v>
       </c>
@@ -15090,7 +15068,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>834</v>
       </c>
@@ -15114,29 +15092,29 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="50">
         <v>0</v>
       </c>
@@ -15147,6 +15125,123 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450121A3-4B0E-4DC2-BC2B-A4199E1748A5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>849</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>850</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF07B71-927D-46B4-A59C-5C7F3A32F1DC}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>630</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>851</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>852</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B9E979-A34B-4335-86B9-8EA4C7396D1E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>851</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>852</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100FBFDC-1AF9-4FB8-872B-FB522755FA4B}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -15154,29 +15249,29 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="50">
         <v>0</v>
       </c>
@@ -15186,37 +15281,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A212CA9D-1813-43A5-9C9B-47E766A782EA}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="50">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE7C74F-275A-428C-9DF6-AF3C554203A9}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -15234,14 +15354,14 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -15252,7 +15372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -15263,7 +15383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -15274,7 +15394,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -15285,7 +15405,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -15296,7 +15416,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -15307,7 +15427,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -15318,7 +15438,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -15329,7 +15449,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -15340,7 +15460,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -15351,7 +15471,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -15362,7 +15482,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -15373,7 +15493,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -15384,7 +15504,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -15395,7 +15515,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -15406,7 +15526,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -15417,7 +15537,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -15428,7 +15548,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -15439,7 +15559,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -15450,7 +15570,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -15461,7 +15581,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -15472,7 +15592,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -15483,7 +15603,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -15508,13 +15628,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -15522,7 +15642,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -15530,7 +15650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -15538,7 +15658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -15546,7 +15666,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -15554,7 +15674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
@@ -15562,7 +15682,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>301</v>
       </c>

--- a/src/test/resources/TestData/SetupTestData.xlsx
+++ b/src/test/resources/TestData/SetupTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruchika.Behura\git\VRT\VRT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061813C8-D9C0-493C-B6BB-B8FDD6EFEDF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D297626C-3CC0-4E5C-823D-09664826A732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="61" activeTab="71" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="847" firstSheet="13" activeTab="19" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupCreation_RT" sheetId="19" r:id="rId1"/>
@@ -32,64 +32,64 @@
     <sheet name="SET020" sheetId="8" r:id="rId17"/>
     <sheet name="SET021" sheetId="15" r:id="rId18"/>
     <sheet name="SET022" sheetId="16" r:id="rId19"/>
-    <sheet name="TcSC004" sheetId="23" r:id="rId20"/>
-    <sheet name="TcSC005" sheetId="24" r:id="rId21"/>
-    <sheet name="TcSC006" sheetId="25" r:id="rId22"/>
-    <sheet name="TcSC007" sheetId="26" r:id="rId23"/>
-    <sheet name="TcSC012" sheetId="27" r:id="rId24"/>
-    <sheet name="TcSC013" sheetId="28" r:id="rId25"/>
-    <sheet name="TcSC014" sheetId="29" r:id="rId26"/>
-    <sheet name="TcSC015" sheetId="30" r:id="rId27"/>
-    <sheet name="TcSC020" sheetId="31" r:id="rId28"/>
-    <sheet name="TcSC021" sheetId="32" r:id="rId29"/>
-    <sheet name="TcSC022" sheetId="33" r:id="rId30"/>
-    <sheet name="TcSC023" sheetId="34" r:id="rId31"/>
-    <sheet name="TcSC041" sheetId="35" r:id="rId32"/>
-    <sheet name="TcSC042" sheetId="36" r:id="rId33"/>
-    <sheet name="TcSC043" sheetId="37" r:id="rId34"/>
-    <sheet name="TcSC046" sheetId="38" r:id="rId35"/>
-    <sheet name="TcSC046a" sheetId="39" r:id="rId36"/>
-    <sheet name="TcSC048" sheetId="40" r:id="rId37"/>
-    <sheet name="TcSC049" sheetId="41" r:id="rId38"/>
-    <sheet name="TcSC050" sheetId="42" r:id="rId39"/>
-    <sheet name="TcSC052" sheetId="43" r:id="rId40"/>
-    <sheet name="TcSC053" sheetId="44" r:id="rId41"/>
-    <sheet name="Sheet1" sheetId="89" r:id="rId42"/>
-    <sheet name="TcSC056" sheetId="45" r:id="rId43"/>
-    <sheet name="TcSC058" sheetId="46" r:id="rId44"/>
-    <sheet name="TcSC059" sheetId="47" r:id="rId45"/>
-    <sheet name="TcSC062" sheetId="48" r:id="rId46"/>
-    <sheet name="TcSC063" sheetId="49" r:id="rId47"/>
-    <sheet name="TcSC064" sheetId="50" r:id="rId48"/>
-    <sheet name="SC082" sheetId="53" r:id="rId49"/>
-    <sheet name="SC083" sheetId="54" r:id="rId50"/>
-    <sheet name="SC084" sheetId="55" r:id="rId51"/>
-    <sheet name="SC084_1" sheetId="56" r:id="rId52"/>
-    <sheet name="SC086" sheetId="57" r:id="rId53"/>
-    <sheet name="SC110" sheetId="84" r:id="rId54"/>
-    <sheet name="GS013" sheetId="58" r:id="rId55"/>
-    <sheet name="GS014" sheetId="59" r:id="rId56"/>
-    <sheet name="CAL007" sheetId="60" r:id="rId57"/>
-    <sheet name="CAL008" sheetId="61" r:id="rId58"/>
-    <sheet name="CAL012" sheetId="64" r:id="rId59"/>
-    <sheet name="CAL013" sheetId="68" r:id="rId60"/>
-    <sheet name="CAL016A" sheetId="65" r:id="rId61"/>
-    <sheet name="CAL016B" sheetId="66" r:id="rId62"/>
-    <sheet name="CAL017" sheetId="67" r:id="rId63"/>
-    <sheet name="CAL018A" sheetId="69" r:id="rId64"/>
-    <sheet name="QP011" sheetId="85" r:id="rId65"/>
-    <sheet name="QP014A" sheetId="70" r:id="rId66"/>
-    <sheet name="QP016A" sheetId="71" r:id="rId67"/>
-    <sheet name="QP012" sheetId="73" r:id="rId68"/>
-    <sheet name="QP018A" sheetId="80" r:id="rId69"/>
-    <sheet name="QP028" sheetId="75" r:id="rId70"/>
-    <sheet name="QP030" sheetId="77" r:id="rId71"/>
-    <sheet name="QP030A" sheetId="86" r:id="rId72"/>
-    <sheet name="QP032A" sheetId="88" r:id="rId73"/>
-    <sheet name="QP034A" sheetId="87" r:id="rId74"/>
-    <sheet name="QP032" sheetId="78" r:id="rId75"/>
-    <sheet name="QP034" sheetId="81" r:id="rId76"/>
-    <sheet name="SET033" sheetId="90" r:id="rId77"/>
+    <sheet name="SET033" sheetId="90" r:id="rId20"/>
+    <sheet name="TcSC004" sheetId="23" r:id="rId21"/>
+    <sheet name="TcSC005" sheetId="24" r:id="rId22"/>
+    <sheet name="TcSC006" sheetId="25" r:id="rId23"/>
+    <sheet name="TcSC007" sheetId="26" r:id="rId24"/>
+    <sheet name="TcSC012" sheetId="27" r:id="rId25"/>
+    <sheet name="TcSC013" sheetId="28" r:id="rId26"/>
+    <sheet name="TcSC014" sheetId="29" r:id="rId27"/>
+    <sheet name="TcSC015" sheetId="30" r:id="rId28"/>
+    <sheet name="TcSC020" sheetId="31" r:id="rId29"/>
+    <sheet name="TcSC021" sheetId="32" r:id="rId30"/>
+    <sheet name="TcSC022" sheetId="33" r:id="rId31"/>
+    <sheet name="TcSC023" sheetId="34" r:id="rId32"/>
+    <sheet name="TcSC041" sheetId="35" r:id="rId33"/>
+    <sheet name="TcSC042" sheetId="36" r:id="rId34"/>
+    <sheet name="TcSC043" sheetId="37" r:id="rId35"/>
+    <sheet name="TcSC046" sheetId="38" r:id="rId36"/>
+    <sheet name="TcSC046a" sheetId="39" r:id="rId37"/>
+    <sheet name="TcSC048" sheetId="40" r:id="rId38"/>
+    <sheet name="TcSC049" sheetId="41" r:id="rId39"/>
+    <sheet name="TcSC050" sheetId="42" r:id="rId40"/>
+    <sheet name="TcSC052" sheetId="43" r:id="rId41"/>
+    <sheet name="TcSC053" sheetId="44" r:id="rId42"/>
+    <sheet name="Sheet1" sheetId="89" r:id="rId43"/>
+    <sheet name="TcSC056" sheetId="45" r:id="rId44"/>
+    <sheet name="TcSC058" sheetId="46" r:id="rId45"/>
+    <sheet name="TcSC059" sheetId="47" r:id="rId46"/>
+    <sheet name="TcSC062" sheetId="48" r:id="rId47"/>
+    <sheet name="TcSC063" sheetId="49" r:id="rId48"/>
+    <sheet name="TcSC064" sheetId="50" r:id="rId49"/>
+    <sheet name="SC082" sheetId="53" r:id="rId50"/>
+    <sheet name="SC083" sheetId="54" r:id="rId51"/>
+    <sheet name="SC084" sheetId="55" r:id="rId52"/>
+    <sheet name="SC084_1" sheetId="56" r:id="rId53"/>
+    <sheet name="SC086" sheetId="57" r:id="rId54"/>
+    <sheet name="SC110" sheetId="84" r:id="rId55"/>
+    <sheet name="GS013" sheetId="58" r:id="rId56"/>
+    <sheet name="GS014" sheetId="59" r:id="rId57"/>
+    <sheet name="CAL007" sheetId="60" r:id="rId58"/>
+    <sheet name="CAL008" sheetId="61" r:id="rId59"/>
+    <sheet name="CAL012" sheetId="64" r:id="rId60"/>
+    <sheet name="CAL013" sheetId="68" r:id="rId61"/>
+    <sheet name="CAL016A" sheetId="65" r:id="rId62"/>
+    <sheet name="CAL016B" sheetId="66" r:id="rId63"/>
+    <sheet name="CAL017" sheetId="67" r:id="rId64"/>
+    <sheet name="CAL018A" sheetId="69" r:id="rId65"/>
+    <sheet name="QP011" sheetId="85" r:id="rId66"/>
+    <sheet name="QP014A" sheetId="70" r:id="rId67"/>
+    <sheet name="QP016A" sheetId="71" r:id="rId68"/>
+    <sheet name="QP012" sheetId="73" r:id="rId69"/>
+    <sheet name="QP018A" sheetId="80" r:id="rId70"/>
+    <sheet name="QP028" sheetId="75" r:id="rId71"/>
+    <sheet name="QP030" sheetId="77" r:id="rId72"/>
+    <sheet name="QP030A" sheetId="86" r:id="rId73"/>
+    <sheet name="QP032A" sheetId="88" r:id="rId74"/>
+    <sheet name="QP034A" sheetId="87" r:id="rId75"/>
+    <sheet name="QP032" sheetId="78" r:id="rId76"/>
+    <sheet name="QP034" sheetId="81" r:id="rId77"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="856">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -2780,6 +2780,12 @@
   </si>
   <si>
     <t>1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1.2.0.23</t>
   </si>
 </sst>
 </file>
@@ -3353,24 +3359,24 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="13.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="24"/>
-    <col min="8" max="8" width="22.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.109375" style="24"/>
+    <col min="6" max="6" width="13.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="24"/>
+    <col min="8" max="8" width="22.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.88671875" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="24"/>
+    <col min="11" max="12" width="9.109375" style="24"/>
     <col min="13" max="13" width="14" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="9.140625" style="24"/>
-    <col min="27" max="27" width="23.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="24"/>
+    <col min="14" max="14" width="13.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="9.109375" style="24"/>
+    <col min="27" max="27" width="23.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>470</v>
       </c>
@@ -3456,7 +3462,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>526</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>476</v>
       </c>
@@ -3628,7 +3634,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>479</v>
       </c>
@@ -3714,7 +3720,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>482</v>
       </c>
@@ -3800,7 +3806,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>484</v>
       </c>
@@ -3886,7 +3892,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>486</v>
       </c>
@@ -3972,7 +3978,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>488</v>
       </c>
@@ -4058,7 +4064,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>491</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>494</v>
       </c>
@@ -4230,7 +4236,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>497</v>
       </c>
@@ -4316,7 +4322,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>499</v>
       </c>
@@ -4402,7 +4408,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>501</v>
       </c>
@@ -4488,7 +4494,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>503</v>
       </c>
@@ -4574,7 +4580,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>508</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>510</v>
       </c>
@@ -4746,7 +4752,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>512</v>
       </c>
@@ -4832,7 +4838,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>514</v>
       </c>
@@ -4918,7 +4924,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>516</v>
       </c>
@@ -5004,7 +5010,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>518</v>
       </c>
@@ -5090,7 +5096,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>520</v>
       </c>
@@ -5176,7 +5182,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>522</v>
       </c>
@@ -5262,7 +5268,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>524</v>
       </c>
@@ -5348,7 +5354,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>694</v>
       </c>
@@ -5434,7 +5440,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>701</v>
       </c>
@@ -5520,7 +5526,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>708</v>
       </c>
@@ -5606,7 +5612,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>714</v>
       </c>
@@ -5692,7 +5698,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>721</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>728</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>735</v>
       </c>
@@ -5950,7 +5956,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>742</v>
       </c>
@@ -6052,32 +6058,32 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -6095,13 +6101,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -6109,7 +6115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
@@ -6117,7 +6123,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
@@ -6125,7 +6131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
@@ -6133,7 +6139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
@@ -6141,7 +6147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -6149,7 +6155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>43</v>
       </c>
@@ -6157,7 +6163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
@@ -6165,7 +6171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -6173,7 +6179,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
@@ -6181,7 +6187,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
@@ -6189,7 +6195,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -6197,7 +6203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
@@ -6205,7 +6211,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
@@ -6213,7 +6219,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
@@ -6221,7 +6227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>52</v>
       </c>
@@ -6229,7 +6235,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
@@ -6237,7 +6243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
@@ -6245,7 +6251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
@@ -6253,7 +6259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>56</v>
       </c>
@@ -6261,7 +6267,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
@@ -6269,7 +6275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
@@ -6277,7 +6283,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
@@ -6285,7 +6291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
@@ -6293,7 +6299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>61</v>
       </c>
@@ -6301,7 +6307,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>62</v>
       </c>
@@ -6309,7 +6315,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>63</v>
       </c>
@@ -6317,7 +6323,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>64</v>
       </c>
@@ -6325,7 +6331,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>65</v>
       </c>
@@ -6346,13 +6352,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -6360,7 +6366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -6381,13 +6387,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
@@ -6395,7 +6401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
@@ -6403,7 +6409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
@@ -6427,7 +6433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
@@ -6435,7 +6441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
@@ -6443,7 +6449,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
@@ -6451,7 +6457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -6459,7 +6465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
@@ -6467,7 +6473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -6475,7 +6481,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -6496,14 +6502,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="103.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="103.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -6514,7 +6520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -6525,7 +6531,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -6547,7 +6553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -6558,7 +6564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -6569,7 +6575,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -6580,7 +6586,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -6591,7 +6597,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -6602,7 +6608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
@@ -6613,7 +6619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -6624,7 +6630,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -6635,7 +6641,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -6646,7 +6652,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
@@ -6657,7 +6663,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
@@ -6668,7 +6674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -6679,7 +6685,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -6701,7 +6707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
@@ -6712,7 +6718,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -6723,7 +6729,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -6734,7 +6740,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
@@ -6745,7 +6751,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
@@ -6769,13 +6775,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -6783,7 +6789,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -6804,13 +6810,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="22" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
@@ -6818,7 +6824,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>30</v>
       </c>
@@ -6826,7 +6832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>30</v>
       </c>
@@ -6834,7 +6840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
@@ -6842,7 +6848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>30</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>30</v>
       </c>
@@ -6858,7 +6864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>30</v>
       </c>
@@ -6874,7 +6880,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>30</v>
       </c>
@@ -6882,7 +6888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -6890,7 +6896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -6898,7 +6904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -6919,14 +6925,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -6937,7 +6943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -6948,7 +6954,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -6959,7 +6965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -6981,7 +6987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -6992,7 +6998,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -7003,7 +7009,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -7014,7 +7020,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -7025,7 +7031,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
@@ -7036,7 +7042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -7047,7 +7053,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -7058,7 +7064,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -7069,7 +7075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
@@ -7080,7 +7086,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -7102,7 +7108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -7113,7 +7119,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -7124,7 +7130,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
@@ -7135,7 +7141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -7146,7 +7152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -7157,7 +7163,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
@@ -7168,7 +7174,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
@@ -7192,13 +7198,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -7206,7 +7212,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -7214,7 +7220,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -7243,12 +7249,12 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -7256,7 +7262,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -7264,7 +7270,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -7285,34 +7291,34 @@
       <selection activeCell="W1" sqref="W1:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="24" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="24"/>
-    <col min="14" max="14" width="7.140625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="24"/>
+    <col min="1" max="5" width="9.109375" style="24"/>
+    <col min="6" max="6" width="14.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="24"/>
+    <col min="14" max="14" width="7.109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="24"/>
     <col min="16" max="16" width="18" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="24" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" style="24" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.33203125" style="24" customWidth="1"/>
     <col min="24" max="24" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="24"/>
-    <col min="26" max="26" width="8.5703125" style="24" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="24"/>
+    <col min="25" max="25" width="9.109375" style="24"/>
+    <col min="26" max="26" width="8.5546875" style="24" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>470</v>
       </c>
@@ -7392,7 +7398,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>533</v>
       </c>
@@ -7472,7 +7478,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>534</v>
       </c>
@@ -7552,7 +7558,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>749</v>
       </c>
@@ -7632,7 +7638,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>755</v>
       </c>
@@ -7712,7 +7718,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>694</v>
       </c>
@@ -7792,7 +7798,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>763</v>
       </c>
@@ -7872,7 +7878,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>701</v>
       </c>
@@ -7952,7 +7958,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>770</v>
       </c>
@@ -8032,7 +8038,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>708</v>
       </c>
@@ -8112,7 +8118,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>777</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>714</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>784</v>
       </c>
@@ -8352,7 +8358,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>721</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>791</v>
       </c>
@@ -8512,7 +8518,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>797</v>
       </c>
@@ -8592,7 +8598,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>803</v>
       </c>
@@ -8672,7 +8678,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>809</v>
       </c>
@@ -8752,7 +8758,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>815</v>
       </c>
@@ -8832,7 +8838,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>728</v>
       </c>
@@ -8912,7 +8918,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>735</v>
       </c>
@@ -8992,7 +8998,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>742</v>
       </c>
@@ -9072,7 +9078,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>825</v>
       </c>
@@ -9161,6 +9167,31 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE7C74F-275A-428C-9DF6-AF3C554203A9}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7961DBD6-4436-47D1-BABD-74842E04A379}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9168,24 +9199,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>300</v>
       </c>
@@ -9198,7 +9229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1326DB45-F260-4780-8881-19AD61FE6C1C}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -9206,22 +9237,22 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>36</v>
       </c>
@@ -9231,7 +9262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE92E83-2079-4084-81B4-2317FB073055}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9239,24 +9270,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>556</v>
       </c>
@@ -9269,7 +9300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1BD71B-9638-437F-913B-9177E63E8265}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9277,24 +9308,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>557</v>
       </c>
@@ -9307,7 +9338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D9327-33FB-48BE-B660-7B2E215397CF}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9315,24 +9346,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>300</v>
       </c>
@@ -9345,7 +9376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE2DC85-D9A9-4EA3-8E96-4625E433277C}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -9353,22 +9384,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>36</v>
       </c>
@@ -9378,7 +9409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67006BD4-503B-46C1-9F4B-66B0636F9DE6}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9386,24 +9417,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>556</v>
       </c>
@@ -9416,7 +9447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD3CE9F-CF7B-478B-9987-865141859C02}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9424,24 +9455,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>557</v>
       </c>
@@ -9454,7 +9485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E86B5D8-B641-4336-8CE5-83E6B69A2615}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9462,24 +9493,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>561</v>
       </c>
@@ -9488,36 +9519,6 @@
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{42AEC75B-1290-4734-9613-BCF0B8C95192}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9389C87C-96E8-46AF-B96E-3F9785ACA4DA}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9530,28 +9531,28 @@
       <selection activeCell="L2" sqref="L2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="24"/>
-    <col min="9" max="9" width="7.140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="24"/>
-    <col min="11" max="11" width="20.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="9.140625" style="24"/>
-    <col min="21" max="21" width="8.5703125" style="24" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="11.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="24"/>
+    <col min="9" max="9" width="7.109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="24"/>
+    <col min="11" max="11" width="20.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="24" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="9.109375" style="24"/>
+    <col min="21" max="21" width="8.5546875" style="24" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>121</v>
       </c>
@@ -9681,7 +9682,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>122</v>
       </c>
@@ -9746,7 +9747,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>123</v>
       </c>
@@ -9811,7 +9812,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>141</v>
       </c>
@@ -9876,7 +9877,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>142</v>
       </c>
@@ -9941,7 +9942,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>143</v>
       </c>
@@ -10006,7 +10007,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>144</v>
       </c>
@@ -10071,7 +10072,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>145</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>146</v>
       </c>
@@ -10201,7 +10202,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>147</v>
       </c>
@@ -10266,7 +10267,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>148</v>
       </c>
@@ -10331,7 +10332,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>149</v>
       </c>
@@ -10396,7 +10397,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>150</v>
       </c>
@@ -10461,7 +10462,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>151</v>
       </c>
@@ -10526,7 +10527,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>152</v>
       </c>
@@ -10591,7 +10592,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>153</v>
       </c>
@@ -10656,7 +10657,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>154</v>
       </c>
@@ -10721,7 +10722,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>155</v>
       </c>
@@ -10786,7 +10787,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>156</v>
       </c>
@@ -10851,7 +10852,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>157</v>
       </c>
@@ -10916,7 +10917,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>158</v>
       </c>
@@ -10981,7 +10982,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>159</v>
       </c>
@@ -11046,7 +11047,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>160</v>
       </c>
@@ -11111,7 +11112,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>161</v>
       </c>
@@ -11176,7 +11177,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>162</v>
       </c>
@@ -11241,7 +11242,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>163</v>
       </c>
@@ -11306,7 +11307,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>164</v>
       </c>
@@ -11371,7 +11372,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>165</v>
       </c>
@@ -11436,7 +11437,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>166</v>
       </c>
@@ -11501,7 +11502,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>167</v>
       </c>
@@ -11566,7 +11567,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>168</v>
       </c>
@@ -11631,7 +11632,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>169</v>
       </c>
@@ -11696,7 +11697,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>170</v>
       </c>
@@ -11761,7 +11762,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>171</v>
       </c>
@@ -11826,7 +11827,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>172</v>
       </c>
@@ -11891,7 +11892,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>173</v>
       </c>
@@ -11956,7 +11957,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>315</v>
       </c>
@@ -12021,7 +12022,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>320</v>
       </c>
@@ -12086,7 +12087,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>326</v>
       </c>
@@ -12151,7 +12152,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
         <v>332</v>
       </c>
@@ -12216,7 +12217,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
         <v>338</v>
       </c>
@@ -12281,7 +12282,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
         <v>344</v>
       </c>
@@ -12346,7 +12347,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
         <v>349</v>
       </c>
@@ -12411,7 +12412,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
         <v>355</v>
       </c>
@@ -12476,7 +12477,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>361</v>
       </c>
@@ -12541,7 +12542,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>367</v>
       </c>
@@ -12606,7 +12607,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
         <v>373</v>
       </c>
@@ -12671,7 +12672,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
         <v>379</v>
       </c>
@@ -12736,7 +12737,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
         <v>385</v>
       </c>
@@ -12801,7 +12802,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>391</v>
       </c>
@@ -12875,6 +12876,36 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9389C87C-96E8-46AF-B96E-3F9785ACA4DA}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3615A2-BAB5-4692-BB3F-3BBFCAC2FC7C}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -12882,24 +12913,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>556</v>
       </c>
@@ -12912,7 +12943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF45BF0D-0E96-4443-A5EA-26F22BCECFBF}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -12920,24 +12951,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>557</v>
       </c>
@@ -12950,7 +12981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474458A1-C57F-4895-9FE1-1DA1ED40E47D}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -12958,24 +12989,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>26</v>
       </c>
@@ -12988,7 +13019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E98BE91-B8FB-48D4-8638-137912EF2E7F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -12996,9 +13027,9 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13006,7 +13037,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>312</v>
       </c>
@@ -13014,7 +13045,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>362</v>
       </c>
@@ -13022,7 +13053,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>374</v>
       </c>
@@ -13038,7 +13069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A143E65-F6ED-48E1-8F74-41C24F67C29F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -13046,9 +13077,9 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13056,7 +13087,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>564</v>
       </c>
@@ -13064,7 +13095,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>565</v>
       </c>
@@ -13072,7 +13103,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>567</v>
       </c>
@@ -13088,7 +13119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07275F25-05CB-4A94-BD1C-BF2E0414CD49}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -13096,9 +13127,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13106,7 +13137,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13114,7 +13145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13122,7 +13153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>95</v>
       </c>
@@ -13139,7 +13170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBD2B57-FA68-4757-9339-E89EEE7E9323}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -13147,9 +13178,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13157,7 +13188,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>568</v>
       </c>
@@ -13170,7 +13201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E67AB17-13D9-43E6-90F4-50FFC59C8A3A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -13178,9 +13209,9 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13191,7 +13222,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>124</v>
       </c>
@@ -13202,7 +13233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>570</v>
       </c>
@@ -13213,7 +13244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>571</v>
       </c>
@@ -13232,7 +13263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764E67A7-7583-414F-AF9A-B8DF3B8B52D1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -13240,9 +13271,9 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13253,7 +13284,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>368</v>
       </c>
@@ -13264,7 +13295,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>333</v>
       </c>
@@ -13275,7 +13306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>374</v>
       </c>
@@ -13289,68 +13320,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{071A94A2-8D3A-4C5D-A0F1-27B87DD5478B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92155A5-4185-4ADD-A720-D2A9D7567C9D}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="C3" s="16">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>573</v>
-      </c>
-      <c r="B4" s="16">
-        <v>111</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>577</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{DA5FAAA5-18C3-4E7C-8668-F630208E0C18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13364,13 +13333,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>470</v>
       </c>
@@ -13390,7 +13359,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>546</v>
       </c>
@@ -13416,6 +13385,68 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92155A5-4185-4ADD-A720-D2A9D7567C9D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C3" s="16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4" s="16">
+        <v>111</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="T@es3" xr:uid="{DA5FAAA5-18C3-4E7C-8668-F630208E0C18}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453DFC48-1FFB-48CE-8EA6-08D28073589D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -13423,9 +13454,9 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13436,7 +13467,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>95</v>
       </c>
@@ -13447,7 +13478,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>321</v>
       </c>
@@ -13463,7 +13494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D70291-5326-41BE-8121-41EA3C17D844}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -13471,9 +13502,9 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13484,7 +13515,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13495,7 +13526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13506,7 +13537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>339</v>
       </c>
@@ -13525,19 +13556,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EA38B4-3B73-4D64-A17A-1C3014ED080B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8594B2CD-0BBB-4399-AFFB-3832AB8C780E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -13545,9 +13576,9 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>562</v>
       </c>
@@ -13555,7 +13586,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13563,7 +13594,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13571,7 +13602,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>339</v>
       </c>
@@ -13579,7 +13610,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>5</v>
       </c>
@@ -13587,7 +13618,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>4</v>
       </c>
@@ -13603,7 +13634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C567BC-8AE4-45D3-BA77-83DDFC2CA907}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -13611,9 +13642,9 @@
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13621,7 +13652,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13629,7 +13660,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13637,7 +13668,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>339</v>
       </c>
@@ -13645,7 +13676,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>15</v>
       </c>
@@ -13653,7 +13684,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>12</v>
       </c>
@@ -13661,7 +13692,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
         <v>13</v>
       </c>
@@ -13669,7 +13700,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>14</v>
       </c>
@@ -13688,7 +13719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B08334-4E5C-49C1-8F70-34C07DC81D8C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -13696,9 +13727,9 @@
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13706,7 +13737,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13714,7 +13745,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13725,7 +13756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971F2D07-2E94-4FEC-8AA3-A1B17E411678}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -13733,9 +13764,9 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13743,7 +13774,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13751,7 +13782,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13759,7 +13790,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>5</v>
       </c>
@@ -13772,7 +13803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C990391-2C55-4309-BB9D-572854DC5428}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -13780,9 +13811,9 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13790,7 +13821,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13798,7 +13829,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13806,7 +13837,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>5</v>
       </c>
@@ -13814,7 +13845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -13827,7 +13858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7070F16B-CB41-4201-B980-F9D96F29C8B1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -13835,9 +13866,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
@@ -13845,7 +13876,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -13853,7 +13884,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
@@ -13861,7 +13892,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>5</v>
       </c>
@@ -13869,7 +13900,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -13877,7 +13908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -13885,7 +13916,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -13899,64 +13930,6 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{ECD9E7D1-15A6-4D6E-AA70-4A778D2A3AF1}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{224A47B9-3A2A-4C9C-9DAF-B0E7556A082C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA04937-DFCC-4806-9F7F-0546CAA9795E}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="67.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>603</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>832</v>
-      </c>
-      <c r="B5" t="s">
-        <v>842</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13969,14 +13942,14 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>470</v>
       </c>
@@ -13993,7 +13966,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>548</v>
       </c>
@@ -14016,6 +13989,64 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA04937-DFCC-4806-9F7F-0546CAA9795E}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="67.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="B5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97346566-78A9-4319-B164-94E984A72BC6}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -14023,34 +14054,34 @@
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>608</v>
       </c>
@@ -14063,7 +14094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C74DE9-2E41-4810-91AE-DD54BAE3C0BD}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -14071,29 +14102,29 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>95</v>
       </c>
@@ -14103,7 +14134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AF1F57-B20E-42DA-9180-1ADB83BA8666}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -14111,34 +14142,34 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>608</v>
       </c>
@@ -14151,7 +14182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828859B3-C461-4703-8B66-4EEA226FFC8E}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -14159,47 +14190,47 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>587</v>
       </c>
@@ -14214,7 +14245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CC74E7-2CC1-4B87-AE13-79E1688F421D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -14222,18 +14253,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="24"/>
+    <col min="1" max="1" width="11.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>836</v>
       </c>
@@ -14243,7 +14274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0179134-7B46-4070-9974-834AA603C489}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -14251,101 +14282,29 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>632</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159E8A0E-D4DB-4D24-8D1D-64E9969CA3B8}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>597</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -14354,6 +14313,81 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159E8A0E-D4DB-4D24-8D1D-64E9969CA3B8}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
+        <v>854</v>
+      </c>
+      <c r="B7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6258765E-8118-45BE-B0E2-A860CFC13885}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -14361,32 +14395,32 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="32">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>12.15</v>
       </c>
@@ -14396,7 +14430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D085BE-1718-4826-8944-55B10BD62A6A}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -14404,37 +14438,37 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>845</v>
       </c>
@@ -14448,7 +14482,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAF0D48-3FFE-4E63-90D8-6D4600BE85B6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F72267C-F94F-4C13-A560-9739CA7E5CB8}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -14456,32 +14524,32 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>12.23</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>99.99</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>12345</v>
       </c>
@@ -14491,41 +14559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAF0D48-3FFE-4E63-90D8-6D4600BE85B6}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C792F055-E179-4BF3-9556-02ACEEB0C47E}">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -14533,49 +14567,49 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>840</v>
       </c>
@@ -14589,7 +14623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF97C58-CA17-48A0-9EF3-0EF3198C12F1}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -14597,24 +14631,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="32">
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="32">
         <v>0.1</v>
       </c>
@@ -14624,7 +14658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7683DA1D-D858-4DD3-8BB1-FF57FB249855}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -14632,29 +14666,29 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>3456.89</v>
       </c>
@@ -14664,7 +14698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E0A869-79ED-46D4-97A7-366D2CE25576}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -14672,19 +14706,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>56.78</v>
       </c>
@@ -14694,7 +14728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC4B56-D4AF-495D-9BFD-10852D2CDDE2}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -14702,44 +14736,44 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
         <v>846</v>
       </c>
@@ -14753,7 +14787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2982C417-6600-4E61-9C60-E3D882844A48}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -14761,9 +14795,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>624</v>
       </c>
@@ -14774,7 +14808,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>321</v>
       </c>
@@ -14790,7 +14824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84DC19B-DC60-4A03-8825-5D765A5296BA}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -14798,34 +14832,34 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>629</v>
       </c>
@@ -14835,7 +14869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E8FF8F-8933-4E54-85B7-064761177090}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -14843,34 +14877,34 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>629</v>
       </c>
@@ -14880,7 +14914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D3609A-3796-4784-8848-7D126234A1CD}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -14888,64 +14922,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
         <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CAFAA7-9EF4-4F56-B5F7-B93808A2B0DE}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -14961,13 +14952,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
@@ -14975,7 +14966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
@@ -14983,7 +14974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
@@ -14991,7 +14982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -14999,7 +14990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
@@ -15007,7 +14998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -15015,7 +15006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
@@ -15023,7 +15014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
@@ -15037,6 +15028,49 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CAFAA7-9EF4-4F56-B5F7-B93808A2B0DE}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C957B096-7B4A-40EE-8FCA-EA57D49055E4}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -15044,9 +15078,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>624</v>
       </c>
@@ -15057,7 +15091,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>833</v>
       </c>
@@ -15068,7 +15102,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>834</v>
       </c>
@@ -15084,7 +15118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD3FF4B-0F94-4552-A30B-C6BC1138BC10}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -15092,70 +15126,31 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="50">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450121A3-4B0E-4DC2-BC2B-A4199E1748A5}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>624</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>849</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -15164,6 +15159,45 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450121A3-4B0E-4DC2-BC2B-A4199E1748A5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>849</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>850</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF07B71-927D-46B4-A59C-5C7F3A32F1DC}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -15171,9 +15205,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>630</v>
       </c>
@@ -15181,7 +15215,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>851</v>
       </c>
@@ -15189,7 +15223,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>852</v>
       </c>
@@ -15202,7 +15236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B9E979-A34B-4335-86B9-8EA4C7396D1E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -15210,9 +15244,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>631</v>
       </c>
@@ -15220,7 +15254,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>851</v>
       </c>
@@ -15228,7 +15262,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>852</v>
       </c>
@@ -15241,7 +15275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100FBFDC-1AF9-4FB8-872B-FB522755FA4B}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -15249,67 +15283,29 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A212CA9D-1813-43A5-9C9B-47E766A782EA}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="50">
         <v>0</v>
       </c>
@@ -15320,23 +15316,36 @@
 </file>
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE7C74F-275A-428C-9DF6-AF3C554203A9}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A212CA9D-1813-43A5-9C9B-47E766A782EA}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>836</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15354,14 +15363,14 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -15372,7 +15381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -15383,7 +15392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -15394,7 +15403,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -15405,7 +15414,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -15416,7 +15425,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -15427,7 +15436,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -15438,7 +15447,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -15449,7 +15458,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -15460,7 +15469,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -15471,7 +15480,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -15482,7 +15491,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -15493,7 +15502,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -15504,7 +15513,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -15515,7 +15524,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -15526,7 +15535,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -15537,7 +15546,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -15548,7 +15557,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -15559,7 +15568,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -15570,7 +15579,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -15581,7 +15590,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -15592,7 +15601,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -15603,7 +15612,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -15628,13 +15637,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -15642,7 +15651,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -15650,7 +15659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -15658,7 +15667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -15666,7 +15675,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -15674,7 +15683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
@@ -15682,7 +15691,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>301</v>
       </c>
